--- a/doc/UART_VIP.xlsx
+++ b/doc/UART_VIP.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="7995"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENV" sheetId="2" r:id="rId1"/>
-    <sheet name="UART_VIP" sheetId="4" r:id="rId2"/>
+    <sheet name="UART_VIP_Feature" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>uart bus</t>
   </si>
@@ -42,13 +42,94 @@
   </si>
   <si>
     <t>ready to send</t>
+  </si>
+  <si>
+    <t>FEATURE NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Full-Duplex</t>
+  </si>
+  <si>
+    <t>Support for full-duplex asynchronous communications </t>
+  </si>
+  <si>
+    <t>Baud Rate</t>
+  </si>
+  <si>
+    <t>Baud rate generation subsystem</t>
+  </si>
+  <si>
+    <t>Auto baud rate generation</t>
+  </si>
+  <si>
+    <t>Data Word Length</t>
+  </si>
+  <si>
+    <t>Programmable data word length (5, 6, 7, or 8 bits)</t>
+  </si>
+  <si>
+    <t>Stop Bits/Character </t>
+  </si>
+  <si>
+    <t>Configurable stop bits (1 or 2 stop bits)</t>
+  </si>
+  <si>
+    <t>1.5 stop bits for 5-bit character length</t>
+  </si>
+  <si>
+    <t>Error Detection Flags</t>
+  </si>
+  <si>
+    <t>Overrun error</t>
+  </si>
+  <si>
+    <t>Frame error</t>
+  </si>
+  <si>
+    <t>Parity error</t>
+  </si>
+  <si>
+    <t>Fully Prioritized Interrupt Sources</t>
+  </si>
+  <si>
+    <t>RX data available</t>
+  </si>
+  <si>
+    <t>TX holding register empty</t>
+  </si>
+  <si>
+    <t>RX line status interrupt</t>
+  </si>
+  <si>
+    <t>Modem status interrupt</t>
+  </si>
+  <si>
+    <t>TX/RX FIFOs</t>
+  </si>
+  <si>
+    <t>Support for up to 128-byte transmit and receive FIFOs</t>
+  </si>
+  <si>
+    <t>Flow Control</t>
+  </si>
+  <si>
+    <t>Support for hardware flow control using RTS/CTS signals</t>
+  </si>
+  <si>
+    <t>Asynchronous/Synchronous Mode</t>
+  </si>
+  <si>
+    <t>Supports both UART and USART operations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +143,26 @@
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,8 +175,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -100,15 +217,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,23 +1164,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J4:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="23.7109375" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="10:11">
       <c r="J4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="10:11">
       <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="10:11">
       <c r="J6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="10:11">
       <c r="J7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="10:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="10:11">
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1032,17 +1221,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B8" s="12"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B14" s="14"/>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B18" s="12"/>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="29.25" thickBot="1">
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/UART_VIP.xlsx
+++ b/doc/UART_VIP.xlsx
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,11 +257,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -299,6 +339,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5542,6 +5586,1500 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -5906,6 +7444,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -5945,23 +7490,23 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{A113D66E-4D16-4DB8-998E-08D44293E4D6}" type="presOf" srcId="{9AB9AA3B-46A0-4555-80E1-9BEAD3805C66}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
     <dgm:cxn modelId="{EE1B14CC-AE4D-4F83-854F-51B3896E6A73}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6B0CC8EF-01E9-4B90-801A-E86E1AB6EB76}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{9C9D4DD4-38BA-4DB7-8735-C067A2960E5F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{9AB9AA3B-46A0-4555-80E1-9BEAD3805C66}" srcOrd="6" destOrd="0" parTransId="{72E0CAE2-7DBF-47A0-9C16-935E80816AD1}" sibTransId="{F16A864E-83BB-49F9-ADAA-DFC998BF7087}"/>
-    <dgm:cxn modelId="{66890725-1E77-4EDD-9C64-C759C5CBDD90}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3CBFAC0E-55D1-4285-851F-DA086D0E4B19}" srcOrd="5" destOrd="0" parTransId="{8DA4899F-D3B8-4C60-86EA-90D32EE179B3}" sibTransId="{AF242374-C77F-458D-A094-7BF6D984BD5B}"/>
-    <dgm:cxn modelId="{FD900B59-CA48-4A3F-93D7-F33DB0268EFF}" type="presOf" srcId="{3CBFAC0E-55D1-4285-851F-DA086D0E4B19}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{68CB5BE5-FC00-49D5-92FB-0DD9CC3F3188}" type="presOf" srcId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{C2B4DBEC-B6EF-4EA5-83CF-8122AE144A50}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F7F9E1A3-E349-4301-AA1B-8BB32F501ED0}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" srcOrd="2" destOrd="0" parTransId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" sibTransId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}"/>
     <dgm:cxn modelId="{3C570ECF-F812-40AE-91F4-7675FDD86198}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{549FBF1F-2B4F-4581-8477-72561D00C71A}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A113D66E-4D16-4DB8-998E-08D44293E4D6}" type="presOf" srcId="{9AB9AA3B-46A0-4555-80E1-9BEAD3805C66}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{C2B4DBEC-B6EF-4EA5-83CF-8122AE144A50}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" srcOrd="2" destOrd="0" parTransId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" sibTransId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}"/>
     <dgm:cxn modelId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" srcOrd="4" destOrd="0" parTransId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" sibTransId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{66890725-1E77-4EDD-9C64-C759C5CBDD90}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3CBFAC0E-55D1-4285-851F-DA086D0E4B19}" srcOrd="5" destOrd="0" parTransId="{8DA4899F-D3B8-4C60-86EA-90D32EE179B3}" sibTransId="{AF242374-C77F-458D-A094-7BF6D984BD5B}"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
+    <dgm:cxn modelId="{FD900B59-CA48-4A3F-93D7-F33DB0268EFF}" type="presOf" srcId="{3CBFAC0E-55D1-4285-851F-DA086D0E4B19}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{F7F9E1A3-E349-4301-AA1B-8BB32F501ED0}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6B0CC8EF-01E9-4B90-801A-E86E1AB6EB76}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{68CB5BE5-FC00-49D5-92FB-0DD9CC3F3188}" type="presOf" srcId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{9C9D4DD4-38BA-4DB7-8735-C067A2960E5F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{9AB9AA3B-46A0-4555-80E1-9BEAD3805C66}" srcOrd="6" destOrd="0" parTransId="{72E0CAE2-7DBF-47A0-9C16-935E80816AD1}" sibTransId="{F16A864E-83BB-49F9-ADAA-DFC998BF7087}"/>
     <dgm:cxn modelId="{8AD6F993-D197-40CF-A102-5B1F496285D4}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{64AA1601-BDEF-4135-A258-4F5F5E1AA5F2}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2B718903-207C-4F25-8189-B428C97A5CAA}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -6003,7 +7548,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>transmiter #(DWITH=8)</a:t>
+            <a:t>transmiter #(DWITH=8, BUFFER_WIDTH = 16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -6051,7 +7596,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>virtual interface tx_if</a:t>
+            <a:t>uvm_event data_tx_interrupt()</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -6086,7 +7631,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}">
+    <dgm:pt modelId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
@@ -6099,95 +7644,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>configuration m_conf</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D55CD25D-8098-4B39-96E8-83BC58712044}" type="parTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}" type="sibTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>logic [DWITH-1:0] tx_buffer[$]</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" type="parTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}" type="sibTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_send()</a:t>
+            <a:t>+ function uart_write(buffer)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -6214,46 +7671,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>crc_generator _crc_</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" type="parTrans" cxnId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}" type="sibTrans" cxnId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{38D7F36C-1235-4036-8695-BE1827862A1F}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
@@ -6284,6 +7701,46 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}" type="sibTrans" cxnId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E8E4C64-8A23-40E4-B528-EF710B545838}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function string uart_write_text(buffer)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{236C393D-6B40-4B0F-BBDA-3A89E62FF9D8}" type="parTrans" cxnId="{C4C99FAA-D005-4D9D-8FC4-4CF59EE04EEC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{47738709-EEBA-4976-B69D-6CF7A6EDB967}" type="sibTrans" cxnId="{C4C99FAA-D005-4D9D-8FC4-4CF59EE04EEC}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -6303,6 +7760,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -6342,21 +7806,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{7D4A7770-A4C0-43A2-9A00-4C97B66F3813}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{4F1CE7EF-2F47-451D-8D61-278C754750B9}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B32C11A5-7629-46E5-B731-70D3A1C4B6B9}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{16A054A1-5C87-4B8A-AA16-31BEB5B16259}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{722BF85F-4B38-457C-B138-2964E8A8A5D8}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="4" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="1" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
     <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{4F1CE7EF-2F47-451D-8D61-278C754750B9}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" srcOrd="2" destOrd="0" parTransId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" sibTransId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
+    <dgm:cxn modelId="{418224EB-0C3C-4FAA-9005-A50813FE38B7}" type="presOf" srcId="{5E8E4C64-8A23-40E4-B528-EF710B545838}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2619FDFC-E2AD-48F1-B9E7-14F126D10D52}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{16A054A1-5C87-4B8A-AA16-31BEB5B16259}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="5" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="3" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{EAA7BBBE-0CF4-4E5C-802A-EF7766846E8D}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{B32C11A5-7629-46E5-B731-70D3A1C4B6B9}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{55229FB9-4BC8-4236-BBFD-803C5390ADC1}" type="presOf" srcId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{C4C99FAA-D005-4D9D-8FC4-4CF59EE04EEC}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{5E8E4C64-8A23-40E4-B528-EF710B545838}" srcOrd="3" destOrd="0" parTransId="{236C393D-6B40-4B0F-BBDA-3A89E62FF9D8}" sibTransId="{47738709-EEBA-4976-B69D-6CF7A6EDB967}"/>
     <dgm:cxn modelId="{2443216E-265A-4D89-82A8-A07F17244A91}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{ABF0B0C6-FC5E-4833-A472-4D8ECEC46313}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{1C5CFE33-3992-45E7-A2D3-8F25F0B6F1CC}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -6664,11 +8124,6 @@
             </a:rPr>
             <a:t>+ virtual function crc32_calculate()</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -6703,6 +8158,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -6742,21 +8204,21 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{9F7A9988-6B35-4986-B84B-05656F7C568D}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{C3DCC5F6-8C2C-4074-ADA5-8CF0ABA21EA0}" srcOrd="5" destOrd="0" parTransId="{A54FA75C-CBC6-492C-83FB-886B73E105DE}" sibTransId="{E8ADFDB8-4394-400D-902B-FA241E64E207}"/>
+    <dgm:cxn modelId="{F5A72586-28BC-435F-A0C1-5AADFD983A4C}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E6E8095D-9A62-4317-BAF0-73320195C8BF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{F5A72586-28BC-435F-A0C1-5AADFD983A4C}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{D0967EAA-DD29-411F-9FD2-52C592FAFCB8}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{411FBCF2-4BEE-4F70-87C4-4F58A162F97E}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{D3F9E486-98FE-4F95-B0F7-F666D05E0AB6}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6B435ABB-8700-4DD9-A8D3-F1C853BE798A}" type="presOf" srcId="{C3DCC5F6-8C2C-4074-ADA5-8CF0ABA21EA0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="2" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{BF4C7292-C9E5-4D41-88CB-E345F9DE7164}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
     <dgm:cxn modelId="{5259D9C5-274C-4F7D-ABA1-60AB8CBAD4EE}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" srcOrd="4" destOrd="0" parTransId="{A54816E9-C29A-42D2-B571-DCBB173BFA86}" sibTransId="{D5F8B224-A3E6-4BCD-AED4-F28697270DDA}"/>
-    <dgm:cxn modelId="{E6E8095D-9A62-4317-BAF0-73320195C8BF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{BF4C7292-C9E5-4D41-88CB-E345F9DE7164}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{411FBCF2-4BEE-4F70-87C4-4F58A162F97E}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="2" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
-    <dgm:cxn modelId="{9F7A9988-6B35-4986-B84B-05656F7C568D}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{C3DCC5F6-8C2C-4074-ADA5-8CF0ABA21EA0}" srcOrd="5" destOrd="0" parTransId="{A54FA75C-CBC6-492C-83FB-886B73E105DE}" sibTransId="{E8ADFDB8-4394-400D-902B-FA241E64E207}"/>
     <dgm:cxn modelId="{6EA39D44-464F-4F25-945A-7A2818507C56}" type="presOf" srcId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
+    <dgm:cxn modelId="{D0967EAA-DD29-411F-9FD2-52C592FAFCB8}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7A97374B-1F4C-4C67-BDDC-57B4ABAA7786}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{A4A56E0A-A963-47D2-9788-9B00AB1C12BE}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{EF840E1D-69FC-4BD1-ABBF-E6C2F603E7EB}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -6798,7 +8260,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>receiver #(DWITH=8)</a:t>
+            <a:t>receiver #(DWITH=8, BUFFER_WIDTH=16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -6846,7 +8308,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>virtual interface rx_if</a:t>
+            <a:t>+ function new()</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -6881,7 +8343,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}">
+    <dgm:pt modelId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
@@ -6894,95 +8356,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>configuration m_conf</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D55CD25D-8098-4B39-96E8-83BC58712044}" type="parTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}" type="sibTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>logic [DWITH-1:0] rx_buffer[$]</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" type="parTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}" type="sibTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_receive()</a:t>
+            <a:t>+ function uart_read(buffer)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7009,7 +8383,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}">
+    <dgm:pt modelId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
@@ -7022,12 +8396,12 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>crc_generator _crc_</a:t>
+            <a:t>+ function string uart_read_text(buffer)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" type="parTrans" cxnId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}">
+    <dgm:pt modelId="{93062E35-E80B-49C8-8EF5-D4FBBCA1B23F}" type="parTrans" cxnId="{925AE71D-87B0-4DFA-93F6-9DF07CB2C708}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -7038,7 +8412,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}" type="sibTrans" cxnId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}">
+    <dgm:pt modelId="{297E0F8F-6611-4074-BFAC-5C1B376B60D3}" type="sibTrans" cxnId="{925AE71D-87B0-4DFA-93F6-9DF07CB2C708}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -7049,7 +8423,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{38D7F36C-1235-4036-8695-BE1827862A1F}">
+    <dgm:pt modelId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
@@ -7062,12 +8436,12 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>+ function new()</a:t>
+            <a:t>uvm_event data_rx_interrupt()</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" type="parTrans" cxnId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}">
+    <dgm:pt modelId="{756B463D-427E-419A-A51C-041CF5E4FFB4}" type="parTrans" cxnId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -7078,7 +8452,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}" type="sibTrans" cxnId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}">
+    <dgm:pt modelId="{E1076617-F194-4C6A-A744-03233D60375B}" type="sibTrans" cxnId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -7098,6 +8472,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -7137,21 +8518,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{67E7B6B2-95AD-4FB7-9D60-EACBDED26B1D}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" srcOrd="2" destOrd="0" parTransId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" sibTransId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}"/>
+    <dgm:cxn modelId="{A962DD2C-2193-4D54-B4F2-4FD65F253797}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57309267-BA35-4113-85B9-EDFD0F68A9F7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{67E7B6B2-95AD-4FB7-9D60-EACBDED26B1D}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{925AE71D-87B0-4DFA-93F6-9DF07CB2C708}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}" srcOrd="3" destOrd="0" parTransId="{93062E35-E80B-49C8-8EF5-D4FBBCA1B23F}" sibTransId="{297E0F8F-6611-4074-BFAC-5C1B376B60D3}"/>
+    <dgm:cxn modelId="{1F1CD288-3BE8-49CC-87BB-636B3A532D88}" type="presOf" srcId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{AE00158F-C405-49D2-98D5-A5030900C6E3}" type="presOf" srcId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="5" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="3" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
-    <dgm:cxn modelId="{65C8D4C0-751C-4555-9E08-727F3A0C8FE1}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{A962DD2C-2193-4D54-B4F2-4FD65F253797}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{AE5269B5-A7E0-492A-B98B-D257F2C1AD9D}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="4" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
-    <dgm:cxn modelId="{AA164494-B194-419D-B0C3-BDCCC4612EA7}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" srcOrd="0" destOrd="0" parTransId="{756B463D-427E-419A-A51C-041CF5E4FFB4}" sibTransId="{E1076617-F194-4C6A-A744-03233D60375B}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
     <dgm:cxn modelId="{203EBB75-BF81-4E2B-98BB-5A1756A569B2}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{57309267-BA35-4113-85B9-EDFD0F68A9F7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{65D696CE-3CE2-4D56-A35B-D01923D8F16B}" type="presOf" srcId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="1" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
     <dgm:cxn modelId="{36C63935-EFA0-47D4-8480-9588DAAAD493}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{274F626E-364D-4312-AA21-77478095C38D}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{689BE9C4-CEE6-4340-8A70-43DEA29FD5F6}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -7337,7 +8714,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic clk</a:t>
+            <a:t>logic uartclk</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7377,7 +8754,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic rstn</a:t>
+            <a:t>logic uartrstn</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7413,6 +8790,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -7453,16 +8837,16 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
+    <dgm:cxn modelId="{3EE392C9-E40F-495E-9535-DAC3B1966818}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{504D7C45-C8BB-413A-B8F4-BD70C54D4F61}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="2" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{2C6EE987-9B46-44FD-97DF-307440F7D26F}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{E38FE188-56F5-462F-9A9F-0B5808A41FFF}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{4D578EEE-91DC-4215-95D3-1E9888F0221C}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{504D7C45-C8BB-413A-B8F4-BD70C54D4F61}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3EE392C9-E40F-495E-9535-DAC3B1966818}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{AD38AFF6-2E37-49E3-8734-2141D748D959}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{2C6EE987-9B46-44FD-97DF-307440F7D26F}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="2" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
     <dgm:cxn modelId="{9F6E85B6-32A9-47C7-8B38-8F153E67BAB6}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{BDF36542-030B-4891-AC21-15D394CBD1F1}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{11A26180-C3CB-49AB-9849-832242CA745B}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -7504,7 +8888,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>sequence_item#(DWITH=8)</a:t>
+            <a:t>sequence_item#(DWITH=8, BUFFER_WIDTH=16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7648,7 +9032,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>trans_type _type_</a:t>
+            <a:t>trans_type t_type</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7688,7 +9072,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] trans_data[$]</a:t>
+            <a:t>logic [DWITH-1:0] trans_data[BUFFER_WIDTH]</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7724,6 +9108,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -7763,17 +9154,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{9A56A542-69FC-4E47-9DFB-B93DBBAE19AC}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
-    <dgm:cxn modelId="{9A56A542-69FC-4E47-9DFB-B93DBBAE19AC}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="2" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
     <dgm:cxn modelId="{7AB82F1E-0EC6-4611-8A55-0A13AFC29490}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{AF35B0A4-1B50-424D-A4AF-91A5428FDAAF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{44FD2D0E-2F41-4A2D-9F7C-8B569C5514DF}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{DA00DF58-CE79-47CB-8BD1-6E1060DCE06B}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2A05732B-B6A8-42C9-ACD8-3C08416F2D2E}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{DA00DF58-CE79-47CB-8BD1-6E1060DCE06B}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
-    <dgm:cxn modelId="{44FD2D0E-2F41-4A2D-9F7C-8B569C5514DF}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="2" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
     <dgm:cxn modelId="{7C564E23-FC06-4AB4-979B-27E85B8235FA}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{1DF1754F-9E4B-4FA5-AC70-056BFD02C220}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8816158B-FEC1-48D6-B8F6-25636B6EA8BA}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -8039,7 +9430,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic clk</a:t>
+            <a:t>logic uartclk</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -8079,7 +9470,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic rstn</a:t>
+            <a:t>logic uartrstn</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -8115,6 +9506,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
       <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
@@ -8183,6 +9581,936 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data8.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>clock_divide_if</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic sysclk</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" type="parTrans" cxnId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}" type="sibTrans" cxnId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic sysrstn</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D55CD25D-8098-4B39-96E8-83BC58712044}" type="parTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}" type="sibTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic uart_clk</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" type="parTrans" cxnId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}" type="sibTrans" cxnId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{391815BF-66C9-4075-9167-8D276FC8B3F5}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic uart_rstn</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" type="parTrans" cxnId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}" type="sibTrans" cxnId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{8C3EE21B-EF7C-462D-AA97-BB9899A1FA45}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BDE6F92-26F9-4545-86E7-CAA2AA8ECA26}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{E0719066-2F0F-465F-824E-79E2CE24C5E7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" srcOrd="3" destOrd="0" parTransId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" sibTransId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}"/>
+    <dgm:cxn modelId="{818B937E-A1E7-4008-8FBF-D9E059C75FB2}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{50B62C85-D2E0-4BF9-ABB0-05345A1671F0}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{F03D3CA9-B4A6-4BE4-9D25-7ECDAD037BFE}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{F2FA9A6C-C7B3-45E0-A1A7-8ADE43465269}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{EF8B393C-2851-4597-9245-CBEA27B3FA3E}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6A1408B0-290C-4E55-951A-8662244D0FF2}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId40" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data9.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uart_character #(DWITH=8, BUFFER_WIDTH=16)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>virtual interface m_if</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" type="parTrans" cxnId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}" type="sibTrans" cxnId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>configuration m_conf</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D55CD25D-8098-4B39-96E8-83BC58712044}" type="parTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}" type="sibTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic [DWITH-1:0] buffer[BUFFER_WIDTH]</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" type="parTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}" type="sibTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>crc_generator t_crc</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" type="parTrans" cxnId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}" type="sibTrans" cxnId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38D7F36C-1235-4036-8695-BE1827862A1F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function new()</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" type="parTrans" cxnId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}" type="sibTrans" cxnId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{61600621-4781-4D15-8DFE-E1B80734F05A}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function uart_write(buffer)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8E6487E4-C45C-4771-85E5-307369D0E189}" type="parTrans" cxnId="{CC624112-F2A3-4E1C-B68C-B4C3B522D383}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{05D656D4-76A0-4EBC-A2F9-C465AD0F52DD}" type="sibTrans" cxnId="{CC624112-F2A3-4E1C-B68C-B4C3B522D383}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B474406D-3428-4D31-9EB3-3F2831A2B854}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function uart_read(buffer)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10A102DC-FCF5-420F-81C1-ACF2F00E83AC}" type="parTrans" cxnId="{670E85A1-55D5-482B-A35D-500615B929A3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31713DD4-51BC-4FFE-999D-3D47D76D1510}" type="sibTrans" cxnId="{670E85A1-55D5-482B-A35D-500615B929A3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{75086F60-D8BC-4083-AEC7-B033BE8367CA}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function string uart_write_text(buffer)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4489ECC1-512B-4EB9-9FF4-7DE0659700F8}" type="parTrans" cxnId="{1707B695-3672-493A-936A-789A975D92C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E9EDB88-C526-42A1-A0F0-F4176C3BC1EF}" type="sibTrans" cxnId="{1707B695-3672-493A-936A-789A975D92C1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1B69AECB-3B1E-4510-B2CB-F822A43AD3EA}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function string uart_read_text(buffer)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1FFEC361-353C-4DFD-9FAF-51E346B5909E}" type="parTrans" cxnId="{78E918DA-5086-4A42-BC9B-A63E2A680482}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C63CE71-83DA-4CA6-9DCB-EAD1D105F619}" type="sibTrans" cxnId="{78E918DA-5086-4A42-BC9B-A63E2A680482}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3F7D08D6-076A-4D42-BC27-84692E33F212}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> virtual interface clock_divide_if</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DFBF985B-05D2-444E-941C-505F9605B6E8}" type="parTrans" cxnId="{258922B9-4DCF-462E-AED2-2779882B8F3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C7926A0-A124-4D64-B2E9-5CE64A11CDA4}" type="sibTrans" cxnId="{258922B9-4DCF-462E-AED2-2779882B8F3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8F4BC24F-F9CC-4F39-88BF-8B896F8EE4E2}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function uart_init(baud_rate)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{24A46278-787D-4E0E-AF80-D92EB7E71BF7}" type="parTrans" cxnId="{652EF54B-AF63-4CAB-98A0-73008E93F34B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1296AC94-6F1C-4C33-9496-359C56517BD8}" type="sibTrans" cxnId="{652EF54B-AF63-4CAB-98A0-73008E93F34B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custScaleY="100000">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custScaleY="100000">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{42D13303-3730-42E6-B368-E96D08D20776}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{1707B695-3672-493A-936A-789A975D92C1}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{75086F60-D8BC-4083-AEC7-B033BE8367CA}" srcOrd="8" destOrd="0" parTransId="{4489ECC1-512B-4EB9-9FF4-7DE0659700F8}" sibTransId="{5E9EDB88-C526-42A1-A0F0-F4176C3BC1EF}"/>
+    <dgm:cxn modelId="{4152557E-74EA-481C-9082-C6D52C02CC3D}" type="presOf" srcId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{09ECF067-56BB-40C2-9F53-F15F1F4B6E2E}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{227D4C15-3F75-4D85-9CBB-DE99DBDC7392}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{652EF54B-AF63-4CAB-98A0-73008E93F34B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8F4BC24F-F9CC-4F39-88BF-8B896F8EE4E2}" srcOrd="10" destOrd="0" parTransId="{24A46278-787D-4E0E-AF80-D92EB7E71BF7}" sibTransId="{1296AC94-6F1C-4C33-9496-359C56517BD8}"/>
+    <dgm:cxn modelId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" srcOrd="3" destOrd="0" parTransId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" sibTransId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}"/>
+    <dgm:cxn modelId="{78E918DA-5086-4A42-BC9B-A63E2A680482}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{1B69AECB-3B1E-4510-B2CB-F822A43AD3EA}" srcOrd="9" destOrd="0" parTransId="{1FFEC361-353C-4DFD-9FAF-51E346B5909E}" sibTransId="{3C63CE71-83DA-4CA6-9DCB-EAD1D105F619}"/>
+    <dgm:cxn modelId="{6C613261-E103-4938-BEE0-9597300E8063}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{A8B1B365-8A28-49DE-9805-A2A7E09F9FE5}" type="presOf" srcId="{B474406D-3428-4D31-9EB3-3F2831A2B854}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="7" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{258922B9-4DCF-462E-AED2-2779882B8F3F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" srcOrd="2" destOrd="0" parTransId="{DFBF985B-05D2-444E-941C-505F9605B6E8}" sibTransId="{3C7926A0-A124-4D64-B2E9-5CE64A11CDA4}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{0DC6661B-CC0F-4344-96E9-FCEE5FEF7716}" type="presOf" srcId="{75086F60-D8BC-4083-AEC7-B033BE8367CA}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="8" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="5" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
+    <dgm:cxn modelId="{A4927550-28B3-4940-A136-72233483660E}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A02F9BC3-9F4B-4B44-9DA8-2627095BAB12}" type="presOf" srcId="{8F4BC24F-F9CC-4F39-88BF-8B896F8EE4E2}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="10" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{ADDC53B2-7E0B-482C-B3C3-38898FE55150}" type="presOf" srcId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{670E85A1-55D5-482B-A35D-500615B929A3}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{B474406D-3428-4D31-9EB3-3F2831A2B854}" srcOrd="7" destOrd="0" parTransId="{10A102DC-FCF5-420F-81C1-ACF2F00E83AC}" sibTransId="{31713DD4-51BC-4FFE-999D-3D47D76D1510}"/>
+    <dgm:cxn modelId="{8823477F-9C8F-45DE-8EE0-21867E85C92E}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="4" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
+    <dgm:cxn modelId="{FE0F40E5-65EF-4F0C-88E9-7E839DF4A1A4}" type="presOf" srcId="{61600621-4781-4D15-8DFE-E1B80734F05A}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CC624112-F2A3-4E1C-B68C-B4C3B522D383}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{61600621-4781-4D15-8DFE-E1B80734F05A}" srcOrd="6" destOrd="0" parTransId="{8E6487E4-C45C-4771-85E5-307369D0E189}" sibTransId="{05D656D4-76A0-4EBC-A2F9-C465AD0F52DD}"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{48295A25-FC40-456F-BCA4-C9BA547FA849}" type="presOf" srcId="{1B69AECB-3B1E-4510-B2CB-F822A43AD3EA}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="9" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{F01A55E7-142C-4722-AE83-D067088FAF3A}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{8D75881D-A004-4F43-B22B-6D1744B64E31}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6813A967-9793-4566-A361-4BCE4CA37347}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId45" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -8198,8 +10526,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="656"/>
-          <a:ext cx="2420709" cy="489600"/>
+          <a:off x="0" y="5354"/>
+          <a:ext cx="3491717" cy="518400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8267,8 +10595,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="656"/>
-        <a:ext cx="2420709" cy="489600"/>
+        <a:off x="0" y="5354"/>
+        <a:ext cx="3491717" cy="518400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -8278,8 +10606,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="490256"/>
-          <a:ext cx="2420709" cy="2333250"/>
+          <a:off x="0" y="523754"/>
+          <a:ext cx="3491717" cy="2322269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8479,8 +10807,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="490256"/>
-        <a:ext cx="2420709" cy="2333250"/>
+        <a:off x="0" y="523754"/>
+        <a:ext cx="3491717" cy="2322269"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8502,8 +10830,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="5163"/>
-          <a:ext cx="2918733" cy="748800"/>
+          <a:off x="0" y="33423"/>
+          <a:ext cx="4079793" cy="1065600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8566,13 +10894,13 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>transmiter #(DWITH=8)</a:t>
+            <a:t>transmiter #(DWITH=8, BUFFER_WIDTH = 16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="5163"/>
-        <a:ext cx="2918733" cy="748800"/>
+        <a:off x="0" y="33423"/>
+        <a:ext cx="4079793" cy="1065600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -8582,8 +10910,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="753963"/>
-          <a:ext cx="2918733" cy="1998359"/>
+          <a:off x="0" y="1099023"/>
+          <a:ext cx="4079793" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8649,73 +10977,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>virtual interface tx_if</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>configuration m_conf</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>logic [DWITH-1:0] tx_buffer[$]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>crc_generator _crc_</a:t>
+            <a:t>uvm_event data_tx_interrupt()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8759,13 +11021,35 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>+ virtual function uart_send()</a:t>
+            <a:t>+ function uart_write(buffer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function string uart_write_text(buffer)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="753963"/>
-        <a:ext cx="2918733" cy="1998359"/>
+        <a:off x="0" y="1099023"/>
+        <a:ext cx="4079793" cy="1625040"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8787,8 +11071,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="14728"/>
-          <a:ext cx="3465741" cy="662400"/>
+          <a:off x="0" y="3641"/>
+          <a:ext cx="3471925" cy="691200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8856,8 +11140,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="14728"/>
-        <a:ext cx="3465741" cy="662400"/>
+        <a:off x="0" y="3641"/>
+        <a:ext cx="3471925" cy="691200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -8867,8 +11151,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="677128"/>
-          <a:ext cx="3465741" cy="1988752"/>
+          <a:off x="0" y="694841"/>
+          <a:ext cx="3471925" cy="2009340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9024,11 +11308,6 @@
             </a:rPr>
             <a:t>+ virtual function crc32_calculate()</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" kern="1200">
-            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
@@ -9054,8 +11333,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="677128"/>
-        <a:ext cx="3465741" cy="1988752"/>
+        <a:off x="0" y="694841"/>
+        <a:ext cx="3471925" cy="2009340"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9077,8 +11356,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="5163"/>
-          <a:ext cx="2918733" cy="748800"/>
+          <a:off x="0" y="33423"/>
+          <a:ext cx="4056290" cy="1065600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9141,13 +11420,13 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>receiver #(DWITH=8)</a:t>
+            <a:t>receiver #(DWITH=8, BUFFER_WIDTH=16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="5163"/>
-        <a:ext cx="2918733" cy="748800"/>
+        <a:off x="0" y="33423"/>
+        <a:ext cx="4056290" cy="1065600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -9157,8 +11436,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="753963"/>
-          <a:ext cx="2918733" cy="1998359"/>
+          <a:off x="0" y="1099023"/>
+          <a:ext cx="4056290" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9224,73 +11503,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>virtual interface rx_if</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>configuration m_conf</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>logic [DWITH-1:0] rx_buffer[$]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>crc_generator _crc_</a:t>
+            <a:t>uvm_event data_rx_interrupt()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9334,13 +11547,35 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>+ virtual function uart_receive()</a:t>
+            <a:t>+ function uart_read(buffer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function string uart_read_text(buffer)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="753963"/>
-        <a:ext cx="2918733" cy="1998359"/>
+        <a:off x="0" y="1099023"/>
+        <a:ext cx="4056290" cy="1625040"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9362,8 +11597,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="14788"/>
-          <a:ext cx="2205717" cy="882286"/>
+          <a:off x="0" y="7239"/>
+          <a:ext cx="3396839" cy="806400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9431,8 +11666,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="14788"/>
-        <a:ext cx="2205717" cy="882286"/>
+        <a:off x="0" y="7239"/>
+        <a:ext cx="3396839" cy="806400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -9442,8 +11677,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="897075"/>
-          <a:ext cx="2205717" cy="1800719"/>
+          <a:off x="0" y="813640"/>
+          <a:ext cx="3396839" cy="1383479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9509,7 +11744,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic clk</a:t>
+            <a:t>logic uartclk</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9531,7 +11766,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic rstn</a:t>
+            <a:t>logic uartrstn</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9580,8 +11815,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="897075"/>
-        <a:ext cx="2205717" cy="1800719"/>
+        <a:off x="0" y="813640"/>
+        <a:ext cx="3396839" cy="1383479"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9603,8 +11838,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1826"/>
-          <a:ext cx="3062965" cy="1094400"/>
+          <a:off x="0" y="15433"/>
+          <a:ext cx="4017938" cy="1094400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9667,13 +11902,13 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>sequence_item#(DWITH=8)</a:t>
+            <a:t>sequence_item#(DWITH=8, BUFFER_WIDTH=16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1826"/>
-        <a:ext cx="3062965" cy="1094400"/>
+        <a:off x="0" y="15433"/>
+        <a:ext cx="4017938" cy="1094400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -9683,8 +11918,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1096226"/>
-          <a:ext cx="3062965" cy="1668959"/>
+          <a:off x="0" y="1109833"/>
+          <a:ext cx="4017938" cy="1668959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9750,7 +11985,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>trans_type _type_</a:t>
+            <a:t>trans_type t_type</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9772,7 +12007,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] trans_data[$]</a:t>
+            <a:t>logic [DWITH-1:0] trans_data[BUFFER_WIDTH]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9821,8 +12056,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1096226"/>
-        <a:ext cx="3062965" cy="1668959"/>
+        <a:off x="0" y="1109833"/>
+        <a:ext cx="4017938" cy="1668959"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9844,8 +12079,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="7761"/>
-          <a:ext cx="2260145" cy="777600"/>
+          <a:off x="0" y="8340"/>
+          <a:ext cx="3439020" cy="806400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9913,8 +12148,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="7761"/>
-        <a:ext cx="2260145" cy="777600"/>
+        <a:off x="0" y="8340"/>
+        <a:ext cx="3439020" cy="806400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -9924,8 +12159,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="785361"/>
-          <a:ext cx="2260145" cy="2001104"/>
+          <a:off x="0" y="814740"/>
+          <a:ext cx="3439020" cy="1998359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9991,7 +12226,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic clk</a:t>
+            <a:t>logic uartclk</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10013,7 +12248,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic rstn</a:t>
+            <a:t>logic uartrstn</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10106,8 +12341,644 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="785361"/>
-        <a:ext cx="2260145" cy="2001104"/>
+        <a:off x="0" y="814740"/>
+        <a:ext cx="3439020" cy="1998359"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11265"/>
+          <a:ext cx="3439764" cy="633600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>clock_divide_if</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="11265"/>
+        <a:ext cx="3439764" cy="633600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="644865"/>
+          <a:ext cx="3439764" cy="1388969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic sysclk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic sysrstn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic uart_clk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic uart_rstn</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="644865"/>
+        <a:ext cx="3439764" cy="1388969"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9177"/>
+          <a:ext cx="4711907" cy="921600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uart_character #(DWITH=8, BUFFER_WIDTH=16)</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="9177"/>
+        <a:ext cx="4711907" cy="921600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="930777"/>
+          <a:ext cx="4711907" cy="3601440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>virtual interface m_if</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>configuration m_conf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> virtual interface clock_divide_if</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>logic [DWITH-1:0] buffer[BUFFER_WIDTH]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>crc_generator t_crc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function new()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function uart_write(buffer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function uart_read(buffer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function string uart_write_text(buffer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function string uart_read_text(buffer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ virtual function uart_init(baud_rate)</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="930777"/>
+        <a:ext cx="4711907" cy="3601440"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -11633,6 +14504,440 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout8.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout9.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -17838,6 +21143,2074 @@
 </file>
 
 <file path=xl/diagrams/quickStyle7.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle8.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle9.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -19438,16 +24811,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57820</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390028</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>24483</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>111099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19468,16 +24841,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108854</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>464993</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8842</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19498,16 +24871,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112938</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108854</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390029</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188026</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54232</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19534,8 +24907,8 @@
       <xdr:rowOff>57820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>263978</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>148308</xdr:rowOff>
     </xdr:to>
@@ -19558,16 +24931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>393247</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108854</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>126174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154438</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>17320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19588,16 +24961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311605</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57820</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>417988</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>157833</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>149677</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>73716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19618,16 +24991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>338818</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108854</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373454</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>160808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45581</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>97535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19644,6 +25017,436 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390028</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>8362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>121249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId36" r:lo="rId37" r:qs="rId38" r:cs="rId39"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>145843</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>178138</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagram 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId41" r:lo="rId42" r:qs="rId43" r:cs="rId44"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>225131</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45457</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="Group 47"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7081900" y="6996545"/>
+          <a:ext cx="7226624" cy="1267626"/>
+          <a:chOff x="7013864" y="6996545"/>
+          <a:chExt cx="7152403" cy="1240412"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Isosceles Triangle 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7013864" y="6996545"/>
+            <a:ext cx="294409" cy="311728"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Isosceles Triangle 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13871858" y="7013863"/>
+            <a:ext cx="294409" cy="311728"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="Elbow Connector 41"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="39" idx="3"/>
+            <a:endCxn id="40" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="10581407" y="3887935"/>
+            <a:ext cx="17318" cy="6857994"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 1420014"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="Straight Connector 43"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="10" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10359921" y="7568045"/>
+            <a:ext cx="0" cy="668912"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>580669</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="Group 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12827098" y="8846244"/>
+          <a:ext cx="1693324" cy="324971"/>
+          <a:chOff x="12683022" y="8819030"/>
+          <a:chExt cx="1671713" cy="324971"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="Flowchart: Decision 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12683022" y="8819030"/>
+            <a:ext cx="294409" cy="324971"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="84" name="Straight Connector 83"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="78" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12977431" y="8981516"/>
+            <a:ext cx="1377304" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125301</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53992</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="Group 95"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6123214" y="10551285"/>
+          <a:ext cx="1962266" cy="225136"/>
+          <a:chOff x="6061364" y="10566129"/>
+          <a:chExt cx="1943710" cy="225136"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Flowchart: Decision 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7727500" y="10566129"/>
+            <a:ext cx="277574" cy="225136"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="Straight Connector 94"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="16" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="6061364" y="10668000"/>
+            <a:ext cx="1666136" cy="10697"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19998,7 +25801,7 @@
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20146,17 +25949,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="J39:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="39" spans="10:10" ht="15.75" thickBot="1">
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="10:10" ht="15.75" thickTop="1">
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="10:10" ht="15.75" thickBot="1">
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="10:10" ht="15.75" thickTop="1">
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="10:10" ht="15.75" thickBot="1">
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="10:10" ht="15.75" thickTop="1">
+      <c r="J72" s="16"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" spans="10:10" ht="15.75" thickBot="1">
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="10:10" ht="15.75" thickTop="1">
+      <c r="J85" s="16"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="16"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="16"/>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93" s="16"/>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94" s="16"/>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95" s="16"/>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="10:10" ht="15.75" thickBot="1">
+      <c r="J97" s="18"/>
+    </row>
+    <row r="98" spans="10:10" ht="15.75" thickTop="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/doc/UART_VIP.xlsx
+++ b/doc/UART_VIP.xlsx
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -297,11 +297,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -327,6 +356,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -339,10 +372,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,6 +391,1500 @@
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -7521,6 +9048,458 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data10.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>TX_FIFO #(FIFO_SIZE = 16)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function new()</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D55CD25D-8098-4B39-96E8-83BC58712044}" type="parTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}" type="sibTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uvm_tlm_fifo #(sequence_item) fifo</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="339">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="1307">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{DF8DB39F-CD68-4133-B23F-A751770F7BFC}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{0E43AB92-DE5B-4CAA-96CB-09DB7B67FE32}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{AB8AB641-B022-4DC5-B010-585639DE2DC5}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{6A1B2473-7504-4F64-99A5-FF82579DF66C}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{481B456F-2F5D-4693-A11F-12CE1E6D7248}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2C9738EE-02F2-4AC3-B4C6-E545B0F38A2E}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{D169A9FE-7F5A-4DDA-8E8C-F659FAF46ABA}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId50" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data11.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>RX_FIFO #(FIFO_SIZE = 16)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function new()</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D55CD25D-8098-4B39-96E8-83BC58712044}" type="parTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}" type="sibTrans" cxnId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uvm_tlm_fifo #(sequence_item) fifo</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="339">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="1307">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{DA75E8BC-B2C4-4500-A556-B542917E9F41}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{510EF640-47B7-4CED-AC79-8A46F73E436C}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{412B0716-9F8B-47EB-9251-02C307A27909}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{010A8D86-3BCE-4E0D-B35E-B77E10234533}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{C70B4903-4C25-4CDE-81ED-9910E243F76E}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{DDEA6BC1-6BB7-4869-8106-92539D410C04}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{5236AEA9-538C-4000-8487-36608AF68587}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId55" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -7548,7 +9527,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>transmiter #(DWITH=8, BUFFER_WIDTH = 16)</a:t>
+            <a:t>transmiter #(DWIDTH=8, BUFFER_SIZE = 16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -7906,7 +9885,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] data_buffer[$]</a:t>
+            <a:t>logic [DWIDTH-1:0] data_buffer[$]</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -8260,7 +10239,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>receiver #(DWITH=8, BUFFER_WIDTH=16)</a:t>
+            <a:t>receiver #(DWIDTH=8, BUFFER_SIZE=16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -8518,17 +10497,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{1F1CD288-3BE8-49CC-87BB-636B3A532D88}" type="presOf" srcId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" srcOrd="0" destOrd="0" parTransId="{756B463D-427E-419A-A51C-041CF5E4FFB4}" sibTransId="{E1076617-F194-4C6A-A744-03233D60375B}"/>
+    <dgm:cxn modelId="{AE00158F-C405-49D2-98D5-A5030900C6E3}" type="presOf" srcId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{203EBB75-BF81-4E2B-98BB-5A1756A569B2}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
     <dgm:cxn modelId="{A962DD2C-2193-4D54-B4F2-4FD65F253797}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{925AE71D-87B0-4DFA-93F6-9DF07CB2C708}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}" srcOrd="3" destOrd="0" parTransId="{93062E35-E80B-49C8-8EF5-D4FBBCA1B23F}" sibTransId="{297E0F8F-6611-4074-BFAC-5C1B376B60D3}"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="1" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
     <dgm:cxn modelId="{57309267-BA35-4113-85B9-EDFD0F68A9F7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{67E7B6B2-95AD-4FB7-9D60-EACBDED26B1D}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{925AE71D-87B0-4DFA-93F6-9DF07CB2C708}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}" srcOrd="3" destOrd="0" parTransId="{93062E35-E80B-49C8-8EF5-D4FBBCA1B23F}" sibTransId="{297E0F8F-6611-4074-BFAC-5C1B376B60D3}"/>
-    <dgm:cxn modelId="{1F1CD288-3BE8-49CC-87BB-636B3A532D88}" type="presOf" srcId="{36F47DB3-E4C7-40DB-B6D4-B507137FFD3D}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{AE00158F-C405-49D2-98D5-A5030900C6E3}" type="presOf" srcId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" srcOrd="0" destOrd="0" parTransId="{756B463D-427E-419A-A51C-041CF5E4FFB4}" sibTransId="{E1076617-F194-4C6A-A744-03233D60375B}"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{203EBB75-BF81-4E2B-98BB-5A1756A569B2}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="1" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
     <dgm:cxn modelId="{36C63935-EFA0-47D4-8480-9588DAAAD493}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{274F626E-364D-4312-AA21-77478095C38D}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{689BE9C4-CEE6-4340-8A70-43DEA29FD5F6}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -8888,7 +10867,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>sequence_item#(DWITH=8, BUFFER_WIDTH=16)</a:t>
+            <a:t>sequence_item#(DWIDTH=8, BUFFER_SIZE=16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -9072,7 +11051,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] trans_data[BUFFER_WIDTH]</a:t>
+            <a:t>logic [DWIDTH-1:0] trans_data[BUFFER_SIZE]</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -9874,17 +11853,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{6BDE6F92-26F9-4545-86E7-CAA2AA8ECA26}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{50B62C85-D2E0-4BF9-ABB0-05345A1671F0}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" srcOrd="3" destOrd="0" parTransId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" sibTransId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{E0719066-2F0F-465F-824E-79E2CE24C5E7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{F03D3CA9-B4A6-4BE4-9D25-7ECDAD037BFE}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
+    <dgm:cxn modelId="{818B937E-A1E7-4008-8FBF-D9E059C75FB2}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8C3EE21B-EF7C-462D-AA97-BB9899A1FA45}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6BDE6F92-26F9-4545-86E7-CAA2AA8ECA26}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{E0719066-2F0F-465F-824E-79E2CE24C5E7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" srcOrd="3" destOrd="0" parTransId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" sibTransId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}"/>
-    <dgm:cxn modelId="{818B937E-A1E7-4008-8FBF-D9E059C75FB2}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{50B62C85-D2E0-4BF9-ABB0-05345A1671F0}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F03D3CA9-B4A6-4BE4-9D25-7ECDAD037BFE}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F2FA9A6C-C7B3-45E0-A1A7-8ADE43465269}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{EF8B393C-2851-4597-9245-CBEA27B3FA3E}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6A1408B0-290C-4E55-951A-8662244D0FF2}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -9926,7 +11905,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>uart_character #(DWITH=8, BUFFER_WIDTH=16)</a:t>
+            <a:t>uart_character #(DWIDTH=8, BUFFER_SIZE=16)</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -10057,46 +12036,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>logic [DWITH-1:0] buffer[BUFFER_WIDTH]</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" type="parTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}" type="sibTrans" cxnId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
@@ -10177,166 +12116,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{61600621-4781-4D15-8DFE-E1B80734F05A}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_write(buffer)</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{8E6487E4-C45C-4771-85E5-307369D0E189}" type="parTrans" cxnId="{CC624112-F2A3-4E1C-B68C-B4C3B522D383}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{05D656D4-76A0-4EBC-A2F9-C465AD0F52DD}" type="sibTrans" cxnId="{CC624112-F2A3-4E1C-B68C-B4C3B522D383}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B474406D-3428-4D31-9EB3-3F2831A2B854}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_read(buffer)</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{10A102DC-FCF5-420F-81C1-ACF2F00E83AC}" type="parTrans" cxnId="{670E85A1-55D5-482B-A35D-500615B929A3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{31713DD4-51BC-4FFE-999D-3D47D76D1510}" type="sibTrans" cxnId="{670E85A1-55D5-482B-A35D-500615B929A3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{75086F60-D8BC-4083-AEC7-B033BE8367CA}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function string uart_write_text(buffer)</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{4489ECC1-512B-4EB9-9FF4-7DE0659700F8}" type="parTrans" cxnId="{1707B695-3672-493A-936A-789A975D92C1}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5E9EDB88-C526-42A1-A0F0-F4176C3BC1EF}" type="sibTrans" cxnId="{1707B695-3672-493A-936A-789A975D92C1}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1B69AECB-3B1E-4510-B2CB-F822A43AD3EA}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function string uart_read_text(buffer)</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1FFEC361-353C-4DFD-9FAF-51E346B5909E}" type="parTrans" cxnId="{78E918DA-5086-4A42-BC9B-A63E2A680482}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3C63CE71-83DA-4CA6-9DCB-EAD1D105F619}" type="sibTrans" cxnId="{78E918DA-5086-4A42-BC9B-A63E2A680482}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{3F7D08D6-076A-4D42-BC27-84692E33F212}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
@@ -10377,7 +12156,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{8F4BC24F-F9CC-4F39-88BF-8B896F8EE4E2}">
+    <dgm:pt modelId="{7F2E17DE-1D05-48E9-91A2-AD7BB6C67DE9}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
@@ -10390,12 +12169,12 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>+ virtual function uart_init(baud_rate)</a:t>
+            <a:t>uvm_analysis_port #(sequence_item  item) trans_ap_get</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{24A46278-787D-4E0E-AF80-D92EB7E71BF7}" type="parTrans" cxnId="{652EF54B-AF63-4CAB-98A0-73008E93F34B}">
+    <dgm:pt modelId="{237EC90E-4012-49E6-993D-59BB14CF9975}" type="parTrans" cxnId="{F38A877D-9061-4FB7-B878-904228D9B3ED}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -10406,7 +12185,47 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1296AC94-6F1C-4C33-9496-359C56517BD8}" type="sibTrans" cxnId="{652EF54B-AF63-4CAB-98A0-73008E93F34B}">
+    <dgm:pt modelId="{1E1E118D-F9DA-488D-9941-8D220C47FCFB}" type="sibTrans" cxnId="{F38A877D-9061-4FB7-B878-904228D9B3ED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9816A02A-F670-4DA6-8285-FDBD922D300F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uvm_analysis_port #(sequence_item  item) trans_ap_put</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{58608944-4442-4AF3-8C57-D7EB1550BB36}" type="parTrans" cxnId="{2B3B5315-BB9D-4556-ACA0-B0B1B86A485D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38ACD9E9-18F2-4399-858E-DDC31132908D}" type="sibTrans" cxnId="{2B3B5315-BB9D-4556-ACA0-B0B1B86A485D}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -10473,30 +12292,22 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{42D13303-3730-42E6-B368-E96D08D20776}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{1707B695-3672-493A-936A-789A975D92C1}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{75086F60-D8BC-4083-AEC7-B033BE8367CA}" srcOrd="8" destOrd="0" parTransId="{4489ECC1-512B-4EB9-9FF4-7DE0659700F8}" sibTransId="{5E9EDB88-C526-42A1-A0F0-F4176C3BC1EF}"/>
-    <dgm:cxn modelId="{4152557E-74EA-481C-9082-C6D52C02CC3D}" type="presOf" srcId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{09ECF067-56BB-40C2-9F53-F15F1F4B6E2E}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{8823477F-9C8F-45DE-8EE0-21867E85C92E}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3A603C6B-E800-487A-9FAB-4C3BAE502E24}" type="presOf" srcId="{7F2E17DE-1D05-48E9-91A2-AD7BB6C67DE9}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="6" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{2B3B5315-BB9D-4556-ACA0-B0B1B86A485D}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{9816A02A-F670-4DA6-8285-FDBD922D300F}" srcOrd="5" destOrd="0" parTransId="{58608944-4442-4AF3-8C57-D7EB1550BB36}" sibTransId="{38ACD9E9-18F2-4399-858E-DDC31132908D}"/>
+    <dgm:cxn modelId="{F38A877D-9061-4FB7-B878-904228D9B3ED}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7F2E17DE-1D05-48E9-91A2-AD7BB6C67DE9}" srcOrd="4" destOrd="0" parTransId="{237EC90E-4012-49E6-993D-59BB14CF9975}" sibTransId="{1E1E118D-F9DA-488D-9941-8D220C47FCFB}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{57893BE4-8488-4FB3-96E1-7157D0FDA240}" type="presOf" srcId="{9816A02A-F670-4DA6-8285-FDBD922D300F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A4927550-28B3-4940-A136-72233483660E}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="3" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
+    <dgm:cxn modelId="{6C613261-E103-4938-BEE0-9597300E8063}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{258922B9-4DCF-462E-AED2-2779882B8F3F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" srcOrd="2" destOrd="0" parTransId="{DFBF985B-05D2-444E-941C-505F9605B6E8}" sibTransId="{3C7926A0-A124-4D64-B2E9-5CE64A11CDA4}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
     <dgm:cxn modelId="{227D4C15-3F75-4D85-9CBB-DE99DBDC7392}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{652EF54B-AF63-4CAB-98A0-73008E93F34B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8F4BC24F-F9CC-4F39-88BF-8B896F8EE4E2}" srcOrd="10" destOrd="0" parTransId="{24A46278-787D-4E0E-AF80-D92EB7E71BF7}" sibTransId="{1296AC94-6F1C-4C33-9496-359C56517BD8}"/>
-    <dgm:cxn modelId="{8A3A5F4A-A29A-4F7B-954E-EBED48410160}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{77814DA0-6DDD-4CC8-B809-657A1E9D80F4}" srcOrd="3" destOrd="0" parTransId="{83CB536D-4BA9-4323-83F8-6C47EFDB5386}" sibTransId="{1F8FED09-E5C3-490A-8CD8-A11642F6A3D0}"/>
-    <dgm:cxn modelId="{78E918DA-5086-4A42-BC9B-A63E2A680482}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{1B69AECB-3B1E-4510-B2CB-F822A43AD3EA}" srcOrd="9" destOrd="0" parTransId="{1FFEC361-353C-4DFD-9FAF-51E346B5909E}" sibTransId="{3C63CE71-83DA-4CA6-9DCB-EAD1D105F619}"/>
-    <dgm:cxn modelId="{6C613261-E103-4938-BEE0-9597300E8063}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{A8B1B365-8A28-49DE-9805-A2A7E09F9FE5}" type="presOf" srcId="{B474406D-3428-4D31-9EB3-3F2831A2B854}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="7" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{258922B9-4DCF-462E-AED2-2779882B8F3F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" srcOrd="2" destOrd="0" parTransId="{DFBF985B-05D2-444E-941C-505F9605B6E8}" sibTransId="{3C7926A0-A124-4D64-B2E9-5CE64A11CDA4}"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{0DC6661B-CC0F-4344-96E9-FCEE5FEF7716}" type="presOf" srcId="{75086F60-D8BC-4083-AEC7-B033BE8367CA}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="8" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="5" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
-    <dgm:cxn modelId="{A4927550-28B3-4940-A136-72233483660E}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{A02F9BC3-9F4B-4B44-9DA8-2627095BAB12}" type="presOf" srcId="{8F4BC24F-F9CC-4F39-88BF-8B896F8EE4E2}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="10" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{09ECF067-56BB-40C2-9F53-F15F1F4B6E2E}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{ADDC53B2-7E0B-482C-B3C3-38898FE55150}" type="presOf" srcId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{670E85A1-55D5-482B-A35D-500615B929A3}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{B474406D-3428-4D31-9EB3-3F2831A2B854}" srcOrd="7" destOrd="0" parTransId="{10A102DC-FCF5-420F-81C1-ACF2F00E83AC}" sibTransId="{31713DD4-51BC-4FFE-999D-3D47D76D1510}"/>
-    <dgm:cxn modelId="{8823477F-9C8F-45DE-8EE0-21867E85C92E}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="4" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
-    <dgm:cxn modelId="{FE0F40E5-65EF-4F0C-88E9-7E839DF4A1A4}" type="presOf" srcId="{61600621-4781-4D15-8DFE-E1B80734F05A}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CC624112-F2A3-4E1C-B68C-B4C3B522D383}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{61600621-4781-4D15-8DFE-E1B80734F05A}" srcOrd="6" destOrd="0" parTransId="{8E6487E4-C45C-4771-85E5-307369D0E189}" sibTransId="{05D656D4-76A0-4EBC-A2F9-C465AD0F52DD}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{48295A25-FC40-456F-BCA4-C9BA547FA849}" type="presOf" srcId="{1B69AECB-3B1E-4510-B2CB-F822A43AD3EA}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="9" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F01A55E7-142C-4722-AE83-D067088FAF3A}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8D75881D-A004-4F43-B22B-6D1744B64E31}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6813A967-9793-4566-A361-4BCE4CA37347}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -10526,8 +12337,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="5354"/>
-          <a:ext cx="3491717" cy="518400"/>
+          <a:off x="0" y="9065"/>
+          <a:ext cx="3454606" cy="518400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10595,8 +12406,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="5354"/>
-        <a:ext cx="3491717" cy="518400"/>
+        <a:off x="0" y="9065"/>
+        <a:ext cx="3454606" cy="518400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -10606,8 +12417,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="523754"/>
-          <a:ext cx="3491717" cy="2322269"/>
+          <a:off x="0" y="527464"/>
+          <a:ext cx="3454606" cy="2322269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10807,15 +12618,15 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="523754"/>
-        <a:ext cx="3491717" cy="2322269"/>
+        <a:off x="0" y="527464"/>
+        <a:ext cx="3454606" cy="2322269"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
 
-<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/diagrams/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
     <dsp:nvGrpSpPr>
@@ -10830,8 +12641,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="33423"/>
-          <a:ext cx="4079793" cy="1065600"/>
+          <a:off x="0" y="19802"/>
+          <a:ext cx="3974643" cy="777600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10894,13 +12705,407 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>transmiter #(DWITH=8, BUFFER_WIDTH = 16)</a:t>
+            <a:t>TX_FIFO #(FIFO_SIZE = 16)</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="19802"/>
+        <a:ext cx="3974643" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="797402"/>
+          <a:ext cx="3974643" cy="1185839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uvm_tlm_fifo #(sequence_item) fifo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function new()</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="797402"/>
+        <a:ext cx="3974643" cy="1185839"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19802"/>
+          <a:ext cx="3974643" cy="777600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>RX_FIFO #(FIFO_SIZE = 16)</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="19802"/>
+        <a:ext cx="3974643" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="797402"/>
+          <a:ext cx="3974643" cy="1185839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uvm_tlm_fifo #(sequence_item) fifo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+ function new()</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="797402"/>
+        <a:ext cx="3974643" cy="1185839"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33423"/>
+          <a:ext cx="4036496" cy="1065600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>transmiter #(DWIDTH=8, BUFFER_SIZE = 16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="33423"/>
-        <a:ext cx="4079793" cy="1065600"/>
+        <a:ext cx="4036496" cy="1065600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -10911,7 +13116,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="1099023"/>
-          <a:ext cx="4079793" cy="1625040"/>
+          <a:ext cx="4036496" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11049,7 +13254,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="1099023"/>
-        <a:ext cx="4079793" cy="1625040"/>
+        <a:ext cx="4036496" cy="1625040"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -11071,8 +13276,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="3641"/>
-          <a:ext cx="3471925" cy="691200"/>
+          <a:off x="0" y="2559"/>
+          <a:ext cx="3434814" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11140,8 +13345,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="3641"/>
-        <a:ext cx="3471925" cy="691200"/>
+        <a:off x="0" y="2559"/>
+        <a:ext cx="3434814" cy="720000"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -11151,8 +13356,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="694841"/>
-          <a:ext cx="3471925" cy="2009340"/>
+          <a:off x="0" y="722559"/>
+          <a:ext cx="3434814" cy="1990125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11218,7 +13423,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] data_buffer[$]</a:t>
+            <a:t>logic [DWIDTH-1:0] data_buffer[$]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11333,8 +13538,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="694841"/>
-        <a:ext cx="3471925" cy="2009340"/>
+        <a:off x="0" y="722559"/>
+        <a:ext cx="3434814" cy="1990125"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -11357,7 +13562,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="33423"/>
-          <a:ext cx="4056290" cy="1065600"/>
+          <a:ext cx="4012994" cy="1065600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11420,13 +13625,13 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>receiver #(DWITH=8, BUFFER_WIDTH=16)</a:t>
+            <a:t>receiver #(DWIDTH=8, BUFFER_SIZE=16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="33423"/>
-        <a:ext cx="4056290" cy="1065600"/>
+        <a:ext cx="4012994" cy="1065600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -11437,7 +13642,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="1099023"/>
-          <a:ext cx="4056290" cy="1625040"/>
+          <a:ext cx="4012994" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11575,7 +13780,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="1099023"/>
-        <a:ext cx="4056290" cy="1625040"/>
+        <a:ext cx="4012994" cy="1625040"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -11597,8 +13802,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="7239"/>
-          <a:ext cx="3396839" cy="806400"/>
+          <a:off x="0" y="10951"/>
+          <a:ext cx="3359727" cy="806400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11666,8 +13871,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="7239"/>
-        <a:ext cx="3396839" cy="806400"/>
+        <a:off x="0" y="10951"/>
+        <a:ext cx="3359727" cy="806400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -11677,8 +13882,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="813640"/>
-          <a:ext cx="3396839" cy="1383479"/>
+          <a:off x="0" y="817351"/>
+          <a:ext cx="3359727" cy="1383479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11815,8 +14020,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="813640"/>
-        <a:ext cx="3396839" cy="1383479"/>
+        <a:off x="0" y="817351"/>
+        <a:ext cx="3359727" cy="1383479"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -11838,8 +14043,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="15433"/>
-          <a:ext cx="4017938" cy="1094400"/>
+          <a:off x="0" y="19144"/>
+          <a:ext cx="3974643" cy="1094400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11902,13 +14107,13 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>sequence_item#(DWITH=8, BUFFER_WIDTH=16)</a:t>
+            <a:t>sequence_item#(DWIDTH=8, BUFFER_SIZE=16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="15433"/>
-        <a:ext cx="4017938" cy="1094400"/>
+        <a:off x="0" y="19144"/>
+        <a:ext cx="3974643" cy="1094400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -11918,8 +14123,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1109833"/>
-          <a:ext cx="4017938" cy="1668959"/>
+          <a:off x="0" y="1113544"/>
+          <a:ext cx="3974643" cy="1668959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12007,7 +14212,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] trans_data[BUFFER_WIDTH]</a:t>
+            <a:t>logic [DWIDTH-1:0] trans_data[BUFFER_SIZE]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12056,8 +14261,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1109833"/>
-        <a:ext cx="4017938" cy="1668959"/>
+        <a:off x="0" y="1113544"/>
+        <a:ext cx="3974643" cy="1668959"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -12079,8 +14284,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="8340"/>
-          <a:ext cx="3439020" cy="806400"/>
+          <a:off x="0" y="1769"/>
+          <a:ext cx="3401910" cy="835200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12148,8 +14353,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="8340"/>
-        <a:ext cx="3439020" cy="806400"/>
+        <a:off x="0" y="1769"/>
+        <a:ext cx="3401910" cy="835200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -12159,8 +14364,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="814740"/>
-          <a:ext cx="3439020" cy="1998359"/>
+          <a:off x="0" y="836969"/>
+          <a:ext cx="3401910" cy="1990125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12341,8 +14546,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="814740"/>
-        <a:ext cx="3439020" cy="1998359"/>
+        <a:off x="0" y="836969"/>
+        <a:ext cx="3401910" cy="1990125"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -12364,8 +14569,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="11265"/>
-          <a:ext cx="3439764" cy="633600"/>
+          <a:off x="0" y="576"/>
+          <a:ext cx="3402652" cy="662400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12433,8 +14638,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="11265"/>
-        <a:ext cx="3439764" cy="633600"/>
+        <a:off x="0" y="576"/>
+        <a:ext cx="3402652" cy="662400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -12444,8 +14649,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="644865"/>
-          <a:ext cx="3439764" cy="1388969"/>
+          <a:off x="0" y="662976"/>
+          <a:ext cx="3402652" cy="1388969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12582,8 +14787,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="644865"/>
-        <a:ext cx="3439764" cy="1388969"/>
+        <a:off x="0" y="662976"/>
+        <a:ext cx="3402652" cy="1388969"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -12605,8 +14810,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="9177"/>
-          <a:ext cx="4711907" cy="921600"/>
+          <a:off x="0" y="13285"/>
+          <a:ext cx="4668610" cy="691200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12669,13 +14874,13 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>uart_character #(DWITH=8, BUFFER_WIDTH=16)</a:t>
+            <a:t>uart_character #(DWIDTH=8, BUFFER_SIZE=16)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="9177"/>
-        <a:ext cx="4711907" cy="921600"/>
+        <a:off x="0" y="13285"/>
+        <a:ext cx="4668610" cy="691200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -12685,8 +14890,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="930777"/>
-          <a:ext cx="4711907" cy="3601440"/>
+          <a:off x="0" y="704486"/>
+          <a:ext cx="4668610" cy="2305799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12818,7 +15023,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [DWITH-1:0] buffer[BUFFER_WIDTH]</a:t>
+            <a:t>crc_generator t_crc</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12840,7 +15045,29 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>crc_generator t_crc</a:t>
+            <a:t>uvm_analysis_port #(sequence_item  item) trans_ap_get</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>uvm_analysis_port #(sequence_item  item) trans_ap_put</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12865,120 +15092,10 @@
             <a:t>+ function new()</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_write(buffer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_read(buffer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function string uart_write_text(buffer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function string uart_read_text(buffer)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>+ virtual function uart_init(baud_rate)</a:t>
-          </a:r>
-        </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="930777"/>
-        <a:ext cx="4711907" cy="3601440"/>
+        <a:off x="0" y="704486"/>
+        <a:ext cx="4668610" cy="2305799"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -12986,6 +15103,440 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout10.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout11.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -15972,6 +18523,2074 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle10.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle11.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -25059,8 +29678,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>178138</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25099,8 +29718,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7081900" y="6996545"/>
-          <a:ext cx="7226624" cy="1267626"/>
+          <a:off x="7013864" y="6996545"/>
+          <a:ext cx="7152403" cy="1275048"/>
           <a:chOff x="7013864" y="6996545"/>
           <a:chExt cx="7152403" cy="1240412"/>
         </a:xfrm>
@@ -25224,9 +29843,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10359921" y="7568045"/>
-            <a:ext cx="0" cy="668912"/>
+          <a:xfrm flipH="1">
+            <a:off x="10359224" y="7568045"/>
+            <a:ext cx="697" cy="668912"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -25271,8 +29890,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12827098" y="8846244"/>
-          <a:ext cx="1693324" cy="324971"/>
+          <a:off x="12703396" y="8853666"/>
+          <a:ext cx="1674769" cy="324971"/>
           <a:chOff x="12683022" y="8819030"/>
           <a:chExt cx="1671713" cy="324971"/>
         </a:xfrm>
@@ -25352,16 +29971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19356</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>128209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>125301</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>53992</xdr:rowOff>
+      <xdr:colOff>111694</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>162845</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -25370,8 +29989,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6123214" y="10551285"/>
-          <a:ext cx="1962266" cy="225136"/>
+          <a:off x="6053941" y="9878345"/>
+          <a:ext cx="1937526" cy="225136"/>
           <a:chOff x="6061364" y="10566129"/>
           <a:chExt cx="1943710" cy="225136"/>
         </a:xfrm>
@@ -25447,6 +30066,157 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>499631</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>136989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>231320</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9898</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Diagram 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId46" r:lo="rId47" r:qs="rId48" r:cs="rId49"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>499631</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>150594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>231320</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>23503</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Diagram 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId51" r:lo="rId52" r:qs="rId53" r:cs="rId54"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571502</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12673855" y="10118911"/>
+          <a:ext cx="638733" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13411200" y="12555070"/>
+          <a:ext cx="1125071" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -25830,7 +30600,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -25838,7 +30608,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B8" s="12"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
@@ -25852,7 +30622,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -25860,13 +30630,13 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B11" s="12"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -25874,19 +30644,19 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="14"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B14" s="14"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -25894,19 +30664,19 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B18" s="12"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
@@ -25949,10 +30719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J39:J98"/>
+  <dimension ref="J39:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25961,181 +30731,241 @@
   </cols>
   <sheetData>
     <row r="39" spans="10:10" ht="15.75" thickBot="1">
-      <c r="J39" s="15"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="10:10" ht="15.75" thickTop="1">
-      <c r="J40" s="17"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="10:10">
-      <c r="J41" s="16"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="10:10">
-      <c r="J42" s="16"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="16"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="16"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="16"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="16"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="10:10">
-      <c r="J47" s="16"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="16"/>
+      <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="10:10">
-      <c r="J49" s="16"/>
+    <row r="49" spans="10:24">
+      <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="10:10">
-      <c r="J50" s="16"/>
+    <row r="50" spans="10:24">
+      <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="10:10">
-      <c r="J51" s="16"/>
+    <row r="51" spans="10:24">
+      <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="10:10">
-      <c r="J52" s="16"/>
+    <row r="52" spans="10:24">
+      <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="16"/>
+    <row r="53" spans="10:24">
+      <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="10:10" ht="15.75" thickBot="1">
-      <c r="J54" s="18"/>
+    <row r="54" spans="10:24" ht="15.75" thickBot="1">
+      <c r="J54" s="14"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="21"/>
     </row>
-    <row r="55" spans="10:10" ht="15.75" thickTop="1">
-      <c r="J55" s="16"/>
+    <row r="55" spans="10:24" ht="15.75" thickTop="1">
+      <c r="J55" s="12"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="21"/>
     </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="16"/>
+    <row r="56" spans="10:24">
+      <c r="J56" s="12"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="21"/>
     </row>
-    <row r="57" spans="10:10">
-      <c r="J57" s="16"/>
+    <row r="57" spans="10:24">
+      <c r="J57" s="12"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="21"/>
     </row>
-    <row r="58" spans="10:10">
-      <c r="J58" s="16"/>
+    <row r="58" spans="10:24">
+      <c r="J58" s="12"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="21"/>
     </row>
-    <row r="59" spans="10:10">
-      <c r="J59" s="16"/>
+    <row r="59" spans="10:24">
+      <c r="J59" s="12"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="21"/>
     </row>
-    <row r="60" spans="10:10">
-      <c r="J60" s="16"/>
+    <row r="60" spans="10:24">
+      <c r="J60" s="12"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="21"/>
     </row>
-    <row r="61" spans="10:10">
-      <c r="J61" s="16"/>
+    <row r="61" spans="10:24">
+      <c r="J61" s="12"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="21"/>
     </row>
-    <row r="62" spans="10:10">
-      <c r="J62" s="16"/>
+    <row r="62" spans="10:24">
+      <c r="J62" s="12"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="21"/>
     </row>
-    <row r="63" spans="10:10">
-      <c r="J63" s="16"/>
+    <row r="63" spans="10:24">
+      <c r="J63" s="12"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="21"/>
     </row>
-    <row r="64" spans="10:10">
-      <c r="J64" s="16"/>
+    <row r="64" spans="10:24">
+      <c r="J64" s="12"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="21"/>
     </row>
-    <row r="65" spans="10:10">
-      <c r="J65" s="16"/>
+    <row r="65" spans="10:24">
+      <c r="J65" s="12"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="21"/>
     </row>
-    <row r="66" spans="10:10">
-      <c r="J66" s="16"/>
+    <row r="66" spans="10:24">
+      <c r="J66" s="12"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="21"/>
     </row>
-    <row r="67" spans="10:10">
-      <c r="J67" s="16"/>
+    <row r="67" spans="10:24">
+      <c r="J67" s="12"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="21"/>
     </row>
-    <row r="68" spans="10:10">
-      <c r="J68" s="16"/>
+    <row r="68" spans="10:24">
+      <c r="J68" s="12"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="21"/>
     </row>
-    <row r="69" spans="10:10">
-      <c r="J69" s="16"/>
+    <row r="69" spans="10:24">
+      <c r="J69" s="12"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="21"/>
     </row>
-    <row r="70" spans="10:10">
-      <c r="J70" s="16"/>
+    <row r="70" spans="10:24">
+      <c r="J70" s="12"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="21"/>
     </row>
-    <row r="71" spans="10:10" ht="15.75" thickBot="1">
-      <c r="J71" s="18"/>
+    <row r="71" spans="10:24" ht="15.75" thickBot="1">
+      <c r="J71" s="14"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="21"/>
     </row>
-    <row r="72" spans="10:10" ht="15.75" thickTop="1">
-      <c r="J72" s="16"/>
+    <row r="72" spans="10:24" ht="15.75" thickTop="1">
+      <c r="J72" s="12"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="21"/>
     </row>
-    <row r="73" spans="10:10">
-      <c r="J73" s="16"/>
+    <row r="73" spans="10:24">
+      <c r="J73" s="12"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="21"/>
     </row>
-    <row r="74" spans="10:10">
-      <c r="J74" s="16"/>
+    <row r="74" spans="10:24">
+      <c r="J74" s="12"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="21"/>
     </row>
-    <row r="75" spans="10:10">
-      <c r="J75" s="16"/>
+    <row r="75" spans="10:24">
+      <c r="J75" s="12"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="21"/>
     </row>
-    <row r="76" spans="10:10">
-      <c r="J76" s="16"/>
+    <row r="76" spans="10:24">
+      <c r="J76" s="12"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="21"/>
     </row>
-    <row r="77" spans="10:10">
-      <c r="J77" s="16"/>
+    <row r="77" spans="10:24">
+      <c r="J77" s="12"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="21"/>
     </row>
-    <row r="78" spans="10:10">
-      <c r="J78" s="16"/>
+    <row r="78" spans="10:24">
+      <c r="J78" s="12"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="20"/>
     </row>
-    <row r="79" spans="10:10">
-      <c r="J79" s="16"/>
+    <row r="79" spans="10:24">
+      <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="10:10">
-      <c r="J80" s="16"/>
+    <row r="80" spans="10:24">
+      <c r="J80" s="12"/>
     </row>
     <row r="81" spans="10:10">
-      <c r="J81" s="16"/>
+      <c r="J81" s="12"/>
     </row>
     <row r="82" spans="10:10">
-      <c r="J82" s="16"/>
+      <c r="J82" s="12"/>
     </row>
     <row r="83" spans="10:10">
-      <c r="J83" s="16"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="84" spans="10:10" ht="15.75" thickBot="1">
-      <c r="J84" s="18"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="10:10" ht="15.75" thickTop="1">
-      <c r="J85" s="16"/>
+      <c r="J85" s="12"/>
     </row>
     <row r="86" spans="10:10">
-      <c r="J86" s="16"/>
+      <c r="J86" s="12"/>
     </row>
     <row r="87" spans="10:10">
-      <c r="J87" s="16"/>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" spans="10:10">
-      <c r="J88" s="16"/>
+      <c r="J88" s="12"/>
     </row>
     <row r="89" spans="10:10">
-      <c r="J89" s="16"/>
+      <c r="J89" s="12"/>
     </row>
     <row r="90" spans="10:10">
-      <c r="J90" s="16"/>
+      <c r="J90" s="12"/>
     </row>
     <row r="91" spans="10:10">
-      <c r="J91" s="16"/>
+      <c r="J91" s="12"/>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="16"/>
+      <c r="J92" s="12"/>
     </row>
     <row r="93" spans="10:10">
-      <c r="J93" s="16"/>
+      <c r="J93" s="12"/>
     </row>
     <row r="94" spans="10:10">
-      <c r="J94" s="16"/>
+      <c r="J94" s="12"/>
     </row>
     <row r="95" spans="10:10">
-      <c r="J95" s="16"/>
+      <c r="J95" s="12"/>
     </row>
     <row r="96" spans="10:10">
-      <c r="J96" s="16"/>
+      <c r="J96" s="12"/>
     </row>
     <row r="97" spans="10:10" ht="15.75" thickBot="1">
-      <c r="J97" s="18"/>
+      <c r="J97" s="14"/>
     </row>
     <row r="98" spans="10:10" ht="15.75" thickTop="1"/>
   </sheetData>

--- a/doc/UART_VIP.xlsx
+++ b/doc/UART_VIP.xlsx
@@ -419,6 +419,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -431,15 +440,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4190,6 +4190,1500 @@
 </file>
 
 <file path=xl/diagrams/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -11120,7 +12614,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [1:0] parity_bit</a:t>
+            <a:t>parity_type t_parity</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -11598,14 +13092,14 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{1A20D3D1-EABC-4418-BC73-AB394C01079F}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{B15E0AB6-C5A9-4B30-A03A-62E1154E3FEB}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{0D674AC3-E04A-4B62-9F3E-470B57429DE0}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{7B66BCBB-9F82-4CF1-9DC1-4AAA8F1CE95D}" type="presOf" srcId="{A90E999C-3DCF-4125-9440-3EF6A569B458}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{27506B63-E5F7-49BF-8983-7A85F7671C7F}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{1A20D3D1-EABC-4418-BC73-AB394C01079F}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{B15E0AB6-C5A9-4B30-A03A-62E1154E3FEB}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{7B66BCBB-9F82-4CF1-9DC1-4AAA8F1CE95D}" type="presOf" srcId="{A90E999C-3DCF-4125-9440-3EF6A569B458}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{D8521CB0-0481-4A5B-A4F6-47F9993C60A4}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{A90E999C-3DCF-4125-9440-3EF6A569B458}" srcOrd="2" destOrd="0" parTransId="{63478F2D-B1EF-471D-9BA4-FDEE5EDBC37A}" sibTransId="{6825186B-F473-4BD3-A4CF-0B749AE35DAF}"/>
     <dgm:cxn modelId="{7135CEAE-1246-4875-AFAC-665F4FF03EBE}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{E979D7CA-649C-4589-834F-CCB557C6AC5E}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -12174,17 +13668,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{EBC7739B-66A3-47CB-B480-5A7B02C965A1}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
-    <dgm:cxn modelId="{A953543C-90EA-491D-8A72-B06FBFB889B1}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{43287DBA-484C-49E5-9FDE-4DDA91B551F4}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{BE3596FE-E510-411B-8C8C-796E9C04B5A3}" type="presOf" srcId="{52A445AD-09C6-4C11-A4A6-E5E91C87C48F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{EBC7739B-66A3-47CB-B480-5A7B02C965A1}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{91F4D373-9B3B-49B2-8CC5-BC2B482C9EF0}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{43287DBA-484C-49E5-9FDE-4DDA91B551F4}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="2" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{BE3596FE-E510-411B-8C8C-796E9C04B5A3}" type="presOf" srcId="{52A445AD-09C6-4C11-A4A6-E5E91C87C48F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{994E1E1F-32DF-4719-9F28-0A56991A74E7}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A953543C-90EA-491D-8A72-B06FBFB889B1}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{46D276E0-3850-4909-868D-82A027380B72}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{52A445AD-09C6-4C11-A4A6-E5E91C87C48F}" srcOrd="3" destOrd="0" parTransId="{EDA09907-AF3A-4810-9E72-B964F855C78F}" sibTransId="{54180C74-B27E-4472-B82D-68C801BF6B23}"/>
-    <dgm:cxn modelId="{994E1E1F-32DF-4719-9F28-0A56991A74E7}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="2" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{91F4D373-9B3B-49B2-8CC5-BC2B482C9EF0}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{5CC92926-92AE-4096-98A3-8D79A736B15E}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8FB4BDDA-20A3-4B3B-AF86-E78326E35505}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F6E602B6-D7B1-43EC-A816-843DC62EAD25}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -12406,11 +13900,11 @@
   <dgm:cxnLst>
     <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
     <dgm:cxn modelId="{8AE825EE-4EBF-446E-9161-C86E9505C158}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{9FE7AEF8-1A38-489D-8C4A-070FA5B816BC}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
     <dgm:cxn modelId="{9F030409-F3D6-4EE6-A929-6B11E95E1DFF}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2364DD0A-84C1-402B-ADEE-57E7392205E8}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{9FE7AEF8-1A38-489D-8C4A-070FA5B816BC}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{CEDF4151-39A9-4C51-BE23-CD88EBFBC28C}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{1F4BE2A2-694D-4F88-9A52-DED18E10E48B}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{325DB883-879E-491E-AAE6-D3375036D4C5}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -12631,12 +14125,12 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{285F3B65-3AAA-4985-AC58-4EC23CDA84B2}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{1B03D89A-EA0E-4B40-85E2-D57AC2567934}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
     <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
     <dgm:cxn modelId="{1D19BB34-ADC3-4A38-901F-6DF0B4357C2C}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{812E122F-D6FA-4198-A788-88341B6A75D1}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{285F3B65-3AAA-4985-AC58-4EC23CDA84B2}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
     <dgm:cxn modelId="{E1E5C8CC-2D83-4B08-8362-D0283D817CD7}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{E84F5C56-0F8C-4826-AEB1-B656A708ADC2}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{FDA4CAF3-7AE0-4ACB-B7B1-1609B34DD0FA}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -12646,6 +14140,484 @@
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
       <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId70" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data15.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum trans_type</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>RX</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>TX</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" type="parTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}" type="sibTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="68820" custLinFactNeighborX="-1527" custLinFactNeighborY="100000">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{2476B604-848F-4856-AAF5-EA9766463698}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2A21EE72-2D67-4931-9281-64DA397E6C5A}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{C2697C18-482D-4611-BB5E-6AF9778BD6CF}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
+    <dgm:cxn modelId="{C1745A9B-CA42-49EC-BA2F-2B513E70FAF3}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{496751BF-2527-4FAA-8575-0FA1FAF6F417}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{33F0A7A5-9AA7-4AC0-8F64-00E8144FC5DD}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BC5B6002-2974-4435-AEFC-628EC3C35643}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId75" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data16.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  parity_type</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ODD</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>EVEN</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" type="parTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}" type="sibTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>NONE</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7AC16DA-6194-4074-9832-9DCC9409A1CF}" type="parTrans" cxnId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68EAFDA3-BA71-4061-AAFF-6CC288D0FC6F}" type="sibTrans" cxnId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="68820" custLinFactNeighborX="-1527" custLinFactNeighborY="100000">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
+    <dgm:cxn modelId="{FE5FDE86-16FD-465A-9695-A382BDEDA3D0}" type="presOf" srcId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{FDEFD25C-268F-4475-98F5-5624EB09D7D0}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{EE34AB1F-6B3E-4F0C-9AFD-B758941AD5AA}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}" srcOrd="2" destOrd="0" parTransId="{C7AC16DA-6194-4074-9832-9DCC9409A1CF}" sibTransId="{68EAFDA3-BA71-4061-AAFF-6CC288D0FC6F}"/>
+    <dgm:cxn modelId="{B77432EC-E6AD-4DAC-BECD-E021F50C859E}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{048B5FC3-9AC3-4055-9481-CE43DC89496D}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2B5165C7-A492-47EF-9DBB-3404866E2C61}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{AF014F9A-D743-4163-B3BB-2EEB4CB3C457}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{1ADD133C-0D36-4C20-BCBE-BF6332229DA1}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId80" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -13388,8 +15360,8 @@
     <dgm:cxn modelId="{BF4C7292-C9E5-4D41-88CB-E345F9DE7164}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
     <dgm:cxn modelId="{5259D9C5-274C-4F7D-ABA1-60AB8CBAD4EE}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" srcOrd="4" destOrd="0" parTransId="{A54816E9-C29A-42D2-B571-DCBB173BFA86}" sibTransId="{D5F8B224-A3E6-4BCD-AED4-F28697270DDA}"/>
+    <dgm:cxn modelId="{6EA39D44-464F-4F25-945A-7A2818507C56}" type="presOf" srcId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{6EA39D44-464F-4F25-945A-7A2818507C56}" type="presOf" srcId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{D0967EAA-DD29-411F-9FD2-52C592FAFCB8}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7A97374B-1F4C-4C67-BDDC-57B4ABAA7786}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{A4A56E0A-A963-47D2-9788-9B00AB1C12BE}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -13759,21 +15731,21 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{A962DD2C-2193-4D54-B4F2-4FD65F253797}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{67E7B6B2-95AD-4FB7-9D60-EACBDED26B1D}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{4A334B44-D4E9-4177-8DB3-4197689ACA74}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3F548E17-21CE-4AD6-A1E8-EFEDC770974F}" srcOrd="5" destOrd="0" parTransId="{BEBB88EC-03F4-4DEA-AC90-CD17F1B6D1BF}" sibTransId="{05364713-9B47-4824-8585-6E1D040D7EE2}"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{F0392DF0-DE99-4365-B36D-D3ED575AAFCC}" type="presOf" srcId="{89CB619D-CC35-4A00-9D35-2F877EBD21AC}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" srcOrd="0" destOrd="0" parTransId="{756B463D-427E-419A-A51C-041CF5E4FFB4}" sibTransId="{E1076617-F194-4C6A-A744-03233D60375B}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="1" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
+    <dgm:cxn modelId="{A962DD2C-2193-4D54-B4F2-4FD65F253797}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{54003EAA-3E7E-4345-B7DE-A84870B4DF11}" type="presOf" srcId="{F66CF308-4C61-4E6B-8354-94DBCD33784C}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{888B6111-EAE7-4DE2-9D85-B4024992B9E1}" type="presOf" srcId="{3F548E17-21CE-4AD6-A1E8-EFEDC770974F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{15CB897E-DCAD-449B-9D40-AA45721D8F40}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{89CB619D-CC35-4A00-9D35-2F877EBD21AC}" srcOrd="2" destOrd="0" parTransId="{94CCB3AF-3105-4F7E-8837-96B085D1517E}" sibTransId="{005E6CF4-C648-4A88-9179-79065A8AEDB9}"/>
     <dgm:cxn modelId="{FA6E7B6D-4D38-4274-84A0-9811C72E4F02}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{F66CF308-4C61-4E6B-8354-94DBCD33784C}" srcOrd="3" destOrd="0" parTransId="{9ACF4F02-5531-405B-B0F2-9B6A8702AB49}" sibTransId="{B1A90912-C7D0-4E4E-B4DE-D9A436392AE5}"/>
-    <dgm:cxn modelId="{45522273-FA33-457B-9EBB-F8714DB163D5}" type="presOf" srcId="{3505DF89-F667-46F5-AC28-04375B23634A}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{1EF668E1-D0D7-41E8-9A09-0E79AC1803BA}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3505DF89-F667-46F5-AC28-04375B23634A}" srcOrd="4" destOrd="0" parTransId="{F8EA6DA8-BFB3-4725-B520-308DCB5E9DB8}" sibTransId="{021E9335-A18D-44DE-B952-B188A569F72E}"/>
     <dgm:cxn modelId="{203EBB75-BF81-4E2B-98BB-5A1756A569B2}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="1" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
-    <dgm:cxn modelId="{888B6111-EAE7-4DE2-9D85-B4024992B9E1}" type="presOf" srcId="{3F548E17-21CE-4AD6-A1E8-EFEDC770974F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6EB9B451-5B19-475D-B9DD-BA1D956B1986}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" srcOrd="0" destOrd="0" parTransId="{756B463D-427E-419A-A51C-041CF5E4FFB4}" sibTransId="{E1076617-F194-4C6A-A744-03233D60375B}"/>
-    <dgm:cxn modelId="{67E7B6B2-95AD-4FB7-9D60-EACBDED26B1D}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{45522273-FA33-457B-9EBB-F8714DB163D5}" type="presOf" srcId="{3505DF89-F667-46F5-AC28-04375B23634A}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{AE00158F-C405-49D2-98D5-A5030900C6E3}" type="presOf" srcId="{E55A2E7B-FB92-4B41-B889-5DDC81387456}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{54003EAA-3E7E-4345-B7DE-A84870B4DF11}" type="presOf" srcId="{F66CF308-4C61-4E6B-8354-94DBCD33784C}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F0392DF0-DE99-4365-B36D-D3ED575AAFCC}" type="presOf" srcId="{89CB619D-CC35-4A00-9D35-2F877EBD21AC}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{36C63935-EFA0-47D4-8480-9588DAAAD493}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{274F626E-364D-4312-AA21-77478095C38D}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{689BE9C4-CEE6-4340-8A70-43DEA29FD5F6}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -14431,19 +16403,19 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{90F347A1-2E67-45A2-9E3F-A90D6FEA1F89}" type="presOf" srcId="{912DBFA3-D9F1-4D36-98C9-ACB49311E9A8}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A3158361-E90B-4104-BF7A-6F239652E541}" type="presOf" srcId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{1E33CD26-72BD-4154-91FB-184EA45471EC}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" srcOrd="4" destOrd="0" parTransId="{1C68E4F7-8646-4491-9E14-2DBC3485364C}" sibTransId="{F9C0FF4E-9A3A-404D-8619-FAAF1D330B5E}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{AF35B0A4-1B50-424D-A4AF-91A5428FDAAF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{4DAA9A2E-D08E-4816-B2F5-3440141B1D48}" type="presOf" srcId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{7AB82F1E-0EC6-4611-8A55-0A13AFC29490}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7FCEEC27-D950-4AED-B3CB-1F3112FA8A08}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{912DBFA3-D9F1-4D36-98C9-ACB49311E9A8}" srcOrd="1" destOrd="0" parTransId="{49B238D8-F969-424A-8228-1E913C1D1321}" sibTransId="{08652B6F-10F8-48D1-9275-945557E23496}"/>
+    <dgm:cxn modelId="{084BD358-B298-433C-86DF-66FEF58C086C}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}" srcOrd="2" destOrd="0" parTransId="{C75564ED-E406-47AF-9CDA-F057AD9E1C6E}" sibTransId="{AAC09676-1B07-4897-AAC9-C33A8AD7149D}"/>
+    <dgm:cxn modelId="{DA00DF58-CE79-47CB-8BD1-6E1060DCE06B}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2A05732B-B6A8-42C9-ACD8-3C08416F2D2E}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{084BD358-B298-433C-86DF-66FEF58C086C}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}" srcOrd="2" destOrd="0" parTransId="{C75564ED-E406-47AF-9CDA-F057AD9E1C6E}" sibTransId="{AAC09676-1B07-4897-AAC9-C33A8AD7149D}"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{A3158361-E90B-4104-BF7A-6F239652E541}" type="presOf" srcId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{AF35B0A4-1B50-424D-A4AF-91A5428FDAAF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{90F347A1-2E67-45A2-9E3F-A90D6FEA1F89}" type="presOf" srcId="{912DBFA3-D9F1-4D36-98C9-ACB49311E9A8}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{DA00DF58-CE79-47CB-8BD1-6E1060DCE06B}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{1E33CD26-72BD-4154-91FB-184EA45471EC}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" srcOrd="4" destOrd="0" parTransId="{1C68E4F7-8646-4491-9E14-2DBC3485364C}" sibTransId="{F9C0FF4E-9A3A-404D-8619-FAAF1D330B5E}"/>
-    <dgm:cxn modelId="{7AB82F1E-0EC6-4611-8A55-0A13AFC29490}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{4DAA9A2E-D08E-4816-B2F5-3440141B1D48}" type="presOf" srcId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7C564E23-FC06-4AB4-979B-27E85B8235FA}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{1DF1754F-9E4B-4FA5-AC70-056BFD02C220}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8816158B-FEC1-48D6-B8F6-25636B6EA8BA}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -15149,9 +17121,9 @@
     <dgm:cxn modelId="{32018433-8BF2-447F-8A98-991D20B71B0E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{238FC6B2-B524-48B8-A864-08A6947FDEED}" srcOrd="1" destOrd="0" parTransId="{6EA592CE-C67F-4D9B-89B1-0830E047B983}" sibTransId="{03EB9485-DD57-48D5-8092-F309CE650283}"/>
     <dgm:cxn modelId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" srcOrd="3" destOrd="0" parTransId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" sibTransId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{F03D3CA9-B4A6-4BE4-9D25-7ECDAD037BFE}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
     <dgm:cxn modelId="{E0719066-2F0F-465F-824E-79E2CE24C5E7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{F03D3CA9-B4A6-4BE4-9D25-7ECDAD037BFE}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
     <dgm:cxn modelId="{B5712722-DA95-4E8A-BC4D-659A135A6E94}" type="presOf" srcId="{238FC6B2-B524-48B8-A864-08A6947FDEED}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{818B937E-A1E7-4008-8FBF-D9E059C75FB2}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -15543,21 +17515,21 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{227D4C15-3F75-4D85-9CBB-DE99DBDC7392}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
+    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="4" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
+    <dgm:cxn modelId="{98BDB9CA-838E-450C-8DFB-503962E5280B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{BCAA2FE5-BA2D-4ED9-8B95-146B96E8F768}" srcOrd="2" destOrd="0" parTransId="{49CF3E66-7DC4-491B-B4CE-7AA0D6451D74}" sibTransId="{E16D5CFD-C172-4713-BF31-C09B754EBE0E}"/>
+    <dgm:cxn modelId="{A4927550-28B3-4940-A136-72233483660E}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{09ECF067-56BB-40C2-9F53-F15F1F4B6E2E}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{ADDC53B2-7E0B-482C-B3C3-38898FE55150}" type="presOf" srcId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{258922B9-4DCF-462E-AED2-2779882B8F3F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" srcOrd="3" destOrd="0" parTransId="{DFBF985B-05D2-444E-941C-505F9605B6E8}" sibTransId="{3C7926A0-A124-4D64-B2E9-5CE64A11CDA4}"/>
+    <dgm:cxn modelId="{8823477F-9C8F-45DE-8EE0-21867E85C92E}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="5" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
     <dgm:cxn modelId="{42D13303-3730-42E6-B368-E96D08D20776}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{9FDA69D9-20E3-45EA-9C6C-5537F0D8362D}" type="presOf" srcId="{BCAA2FE5-BA2D-4ED9-8B95-146B96E8F768}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{8823477F-9C8F-45DE-8EE0-21867E85C92E}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="5" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{98BDB9CA-838E-450C-8DFB-503962E5280B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{BCAA2FE5-BA2D-4ED9-8B95-146B96E8F768}" srcOrd="2" destOrd="0" parTransId="{49CF3E66-7DC4-491B-B4CE-7AA0D6451D74}" sibTransId="{E16D5CFD-C172-4713-BF31-C09B754EBE0E}"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{A4927550-28B3-4940-A136-72233483660E}" type="presOf" srcId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6C613261-E103-4938-BEE0-9597300E8063}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{B5D8C962-9EDF-4953-82DF-924A5FD3399B}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6C0DAD80-F706-46AF-8574-D53652A45DCB}" srcOrd="4" destOrd="0" parTransId="{AAD0586D-64C2-456D-8A6D-2F07730D46B0}" sibTransId="{B6436501-2083-4EC9-9144-B89DAA1BF7BC}"/>
-    <dgm:cxn modelId="{258922B9-4DCF-462E-AED2-2779882B8F3F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" srcOrd="3" destOrd="0" parTransId="{DFBF985B-05D2-444E-941C-505F9605B6E8}" sibTransId="{3C7926A0-A124-4D64-B2E9-5CE64A11CDA4}"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{227D4C15-3F75-4D85-9CBB-DE99DBDC7392}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{09ECF067-56BB-40C2-9F53-F15F1F4B6E2E}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{ADDC53B2-7E0B-482C-B3C3-38898FE55150}" type="presOf" srcId="{3F7D08D6-076A-4D42-BC27-84692E33F212}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F01A55E7-142C-4722-AE83-D067088FAF3A}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8D75881D-A004-4F43-B22B-6D1744B64E31}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6813A967-9793-4566-A361-4BCE4CA37347}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -15587,8 +17559,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="656"/>
-          <a:ext cx="3532538" cy="489600"/>
+          <a:off x="0" y="9065"/>
+          <a:ext cx="3454606" cy="518400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15656,8 +17628,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="656"/>
-        <a:ext cx="3532538" cy="489600"/>
+        <a:off x="0" y="9065"/>
+        <a:ext cx="3454606" cy="518400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -15667,8 +17639,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="490256"/>
-          <a:ext cx="3532538" cy="2333250"/>
+          <a:off x="0" y="527464"/>
+          <a:ext cx="3454606" cy="2322269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15778,7 +17750,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [1:0] parity_bit</a:t>
+            <a:t>parity_type t_parity</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15868,8 +17840,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="490256"/>
-        <a:ext cx="3532538" cy="2333250"/>
+        <a:off x="0" y="527464"/>
+        <a:ext cx="3454606" cy="2322269"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -15891,8 +17863,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="4535"/>
-          <a:ext cx="4052576" cy="921600"/>
+          <a:off x="0" y="18605"/>
+          <a:ext cx="3974643" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15960,8 +17932,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="4535"/>
-        <a:ext cx="4052576" cy="921600"/>
+        <a:off x="0" y="18605"/>
+        <a:ext cx="3974643" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -15971,8 +17943,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="926135"/>
-          <a:ext cx="4052576" cy="1405439"/>
+          <a:off x="0" y="940205"/>
+          <a:ext cx="3974643" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16087,8 +18059,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="926135"/>
-        <a:ext cx="4052576" cy="1405439"/>
+        <a:off x="0" y="940205"/>
+        <a:ext cx="3974643" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16110,8 +18082,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="4535"/>
-          <a:ext cx="4065563" cy="921600"/>
+          <a:off x="0" y="18605"/>
+          <a:ext cx="3974643" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16179,8 +18151,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="4535"/>
-        <a:ext cx="4065563" cy="921600"/>
+        <a:off x="0" y="18605"/>
+        <a:ext cx="3974643" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -16190,8 +18162,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="926135"/>
-          <a:ext cx="4065563" cy="1405439"/>
+          <a:off x="0" y="940205"/>
+          <a:ext cx="3974643" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16306,8 +18278,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="926135"/>
-        <a:ext cx="4065563" cy="1405439"/>
+        <a:off x="0" y="940205"/>
+        <a:ext cx="3974643" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16329,8 +18301,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="10935"/>
-          <a:ext cx="3479841" cy="662400"/>
+          <a:off x="0" y="7687"/>
+          <a:ext cx="3401910" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16398,8 +18370,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="10935"/>
-        <a:ext cx="3479841" cy="662400"/>
+        <a:off x="0" y="7687"/>
+        <a:ext cx="3401910" cy="720000"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -16409,8 +18381,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="684270"/>
-          <a:ext cx="3479841" cy="1388969"/>
+          <a:off x="0" y="735375"/>
+          <a:ext cx="3401910" cy="1372500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16547,8 +18519,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="684270"/>
-        <a:ext cx="3479841" cy="1388969"/>
+        <a:off x="0" y="735375"/>
+        <a:ext cx="3401910" cy="1372500"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16571,7 +18543,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4967967" cy="921600"/>
+          <a:ext cx="4864058" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16640,7 +18612,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="4967967" cy="921600"/>
+        <a:ext cx="4864058" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -16650,8 +18622,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="926135"/>
-          <a:ext cx="4967967" cy="1405439"/>
+          <a:off x="0" y="940205"/>
+          <a:ext cx="4864058" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16744,8 +18716,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="926135"/>
-        <a:ext cx="4967967" cy="1405439"/>
+        <a:off x="0" y="940205"/>
+        <a:ext cx="4864058" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16768,7 +18740,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4764479" cy="921600"/>
+          <a:ext cx="4673558" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16837,7 +18809,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="4764479" cy="921600"/>
+        <a:ext cx="4673558" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -16847,8 +18819,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="926135"/>
-          <a:ext cx="4764479" cy="1405439"/>
+          <a:off x="0" y="940205"/>
+          <a:ext cx="4673558" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16941,8 +18913,424 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="926135"/>
-        <a:ext cx="4764479" cy="1405439"/>
+        <a:off x="0" y="940205"/>
+        <a:ext cx="4673558" cy="1405439"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27117"/>
+          <a:ext cx="3401910" cy="518400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum trans_type</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="27117"/>
+        <a:ext cx="3401910" cy="518400"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="572634"/>
+          <a:ext cx="3401910" cy="790560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>RX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>TX</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="572634"/>
+        <a:ext cx="3401910" cy="790560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13327"/>
+          <a:ext cx="3401910" cy="748800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  parity_type</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="13327"/>
+        <a:ext cx="3401910" cy="748800"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="775454"/>
+          <a:ext cx="3401910" cy="1141919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ODD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>EVEN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>NONE</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="775454"/>
+        <a:ext cx="3401910" cy="1141919"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16965,7 +19353,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="8032"/>
-          <a:ext cx="5124449" cy="1065600"/>
+          <a:ext cx="5007552" cy="1065600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17034,7 +19422,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="8032"/>
-        <a:ext cx="5124449" cy="1065600"/>
+        <a:ext cx="5007552" cy="1065600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -17045,7 +19433,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="1073632"/>
-          <a:ext cx="5124449" cy="1675822"/>
+          <a:ext cx="5007552" cy="1675822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17205,7 +19593,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="1073632"/>
-        <a:ext cx="5124449" cy="1675822"/>
+        <a:ext cx="5007552" cy="1675822"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -17227,8 +19615,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="14728"/>
-          <a:ext cx="3512746" cy="662400"/>
+          <a:off x="0" y="2559"/>
+          <a:ext cx="3434814" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17296,8 +19684,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="14728"/>
-        <a:ext cx="3512746" cy="662400"/>
+        <a:off x="0" y="2559"/>
+        <a:ext cx="3434814" cy="720000"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -17307,8 +19695,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="677128"/>
-          <a:ext cx="3512746" cy="1988752"/>
+          <a:off x="0" y="722559"/>
+          <a:ext cx="3434814" cy="1990125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17489,8 +19877,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="677128"/>
-        <a:ext cx="3512746" cy="1988752"/>
+        <a:off x="0" y="722559"/>
+        <a:ext cx="3434814" cy="1990125"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -17513,7 +19901,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="5163"/>
-          <a:ext cx="4498521" cy="748800"/>
+          <a:ext cx="4407601" cy="748800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17582,7 +19970,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="5163"/>
-        <a:ext cx="4498521" cy="748800"/>
+        <a:ext cx="4407601" cy="748800"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -17593,7 +19981,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="753963"/>
-          <a:ext cx="4498521" cy="1998359"/>
+          <a:ext cx="4407601" cy="1998359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17772,7 +20160,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="753963"/>
-        <a:ext cx="4498521" cy="1998359"/>
+        <a:ext cx="4407601" cy="1998359"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -17794,8 +20182,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="5539"/>
-          <a:ext cx="3437660" cy="806400"/>
+          <a:off x="0" y="406"/>
+          <a:ext cx="3359727" cy="835200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17863,8 +20251,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="5539"/>
-        <a:ext cx="3437660" cy="806400"/>
+        <a:off x="0" y="406"/>
+        <a:ext cx="3359727" cy="835200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -17874,8 +20262,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="811939"/>
-          <a:ext cx="3437660" cy="1383479"/>
+          <a:off x="0" y="835606"/>
+          <a:ext cx="3359727" cy="1393087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18012,8 +20400,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="811939"/>
-        <a:ext cx="3437660" cy="1383479"/>
+        <a:off x="0" y="835606"/>
+        <a:ext cx="3359727" cy="1393087"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -18035,8 +20423,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="2547"/>
-          <a:ext cx="4065564" cy="633600"/>
+          <a:off x="0" y="19865"/>
+          <a:ext cx="3974643" cy="633600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18104,8 +20492,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="2547"/>
-        <a:ext cx="4065564" cy="633600"/>
+        <a:off x="0" y="19865"/>
+        <a:ext cx="3974643" cy="633600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -18115,8 +20503,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="636147"/>
-          <a:ext cx="4065564" cy="1690919"/>
+          <a:off x="0" y="653465"/>
+          <a:ext cx="3974643" cy="1690919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18275,8 +20663,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="636147"/>
-        <a:ext cx="4065564" cy="1690919"/>
+        <a:off x="0" y="653465"/>
+        <a:ext cx="3974643" cy="1690919"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -18298,8 +20686,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="6639"/>
-          <a:ext cx="3479841" cy="806400"/>
+          <a:off x="0" y="10428"/>
+          <a:ext cx="3401910" cy="835200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18367,8 +20755,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="6639"/>
-        <a:ext cx="3479841" cy="806400"/>
+        <a:off x="0" y="10428"/>
+        <a:ext cx="3401910" cy="835200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -18378,8 +20766,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="819679"/>
-          <a:ext cx="3479841" cy="1998359"/>
+          <a:off x="0" y="856056"/>
+          <a:ext cx="3401910" cy="1990125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18560,8 +20948,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="819679"/>
-        <a:ext cx="3479841" cy="1998359"/>
+        <a:off x="0" y="856056"/>
+        <a:ext cx="3401910" cy="1990125"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -18583,8 +20971,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="18594"/>
-          <a:ext cx="3480585" cy="921600"/>
+          <a:off x="0" y="16870"/>
+          <a:ext cx="3402652" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18652,8 +21040,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="18594"/>
-        <a:ext cx="3480585" cy="921600"/>
+        <a:off x="0" y="16870"/>
+        <a:ext cx="3402652" cy="950400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -18663,8 +21051,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="940194"/>
-          <a:ext cx="3480585" cy="1405439"/>
+          <a:off x="0" y="967270"/>
+          <a:ext cx="3402652" cy="1449359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18801,8 +21189,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="940194"/>
-        <a:ext cx="3480585" cy="1405439"/>
+        <a:off x="0" y="967270"/>
+        <a:ext cx="3402652" cy="1449359"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -18824,8 +21212,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="7227"/>
-          <a:ext cx="4759532" cy="1814400"/>
+          <a:off x="0" y="24546"/>
+          <a:ext cx="4668610" cy="1814400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18893,8 +21281,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="7227"/>
-        <a:ext cx="4759532" cy="1814400"/>
+        <a:off x="0" y="24546"/>
+        <a:ext cx="4668610" cy="1814400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -18904,8 +21292,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1821627"/>
-          <a:ext cx="4759532" cy="2766959"/>
+          <a:off x="0" y="1838946"/>
+          <a:ext cx="4668610" cy="2766959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19086,8 +21474,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1821627"/>
-        <a:ext cx="4759532" cy="2766959"/>
+        <a:off x="0" y="1838946"/>
+        <a:ext cx="4668610" cy="2766959"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -20180,6 +22568,440 @@
 </file>
 
 <file path=xl/diagrams/layout14.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout15.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout16.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -28336,6 +31158,2074 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle15.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle16.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -37175,13 +42065,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>390028</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>144436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>207817</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>111099</xdr:rowOff>
@@ -37205,13 +42095,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>464993</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>182024</xdr:rowOff>
@@ -37235,13 +42125,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>390029</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>40623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>188026</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>54232</xdr:rowOff>
@@ -37265,13 +42155,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>406853</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>57820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>148308</xdr:rowOff>
@@ -37295,13 +42185,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>398318</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>178126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>121228</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
@@ -37325,13 +42215,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>504572</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>129566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>236262</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
@@ -37355,13 +42245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>373454</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>22260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>138546</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>149487</xdr:rowOff>
@@ -37385,13 +42275,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>390028</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>8362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>155863</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
@@ -37415,13 +42305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>145843</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>45458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
@@ -37445,13 +42335,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>225131</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>45459</xdr:rowOff>
@@ -37463,8 +42353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9014114" y="6996544"/>
-          <a:ext cx="7308267" cy="1240415"/>
+          <a:off x="10650682" y="6996544"/>
+          <a:ext cx="7152404" cy="1275051"/>
           <a:chOff x="7013864" y="6996545"/>
           <a:chExt cx="7152403" cy="1240415"/>
         </a:xfrm>
@@ -37617,13 +42507,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>580672</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>107985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>86595</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
@@ -37635,8 +42525,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15439672" y="15728985"/>
-          <a:ext cx="1363298" cy="324970"/>
+          <a:off x="16946354" y="15867530"/>
+          <a:ext cx="1324332" cy="342289"/>
           <a:chOff x="12683022" y="8819030"/>
           <a:chExt cx="1321915" cy="324971"/>
         </a:xfrm>
@@ -37716,13 +42606,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>128209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>111694</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>162845</xdr:rowOff>
@@ -37734,8 +42624,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8028214" y="9843709"/>
-          <a:ext cx="1989480" cy="225136"/>
+          <a:off x="9690759" y="9878345"/>
+          <a:ext cx="1937526" cy="225136"/>
           <a:chOff x="6061364" y="10566129"/>
           <a:chExt cx="1943710" cy="225136"/>
         </a:xfrm>
@@ -37815,13 +42705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>6981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>361573</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>24299</xdr:rowOff>
@@ -37833,8 +42723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3095628" y="13532481"/>
-          <a:ext cx="980695" cy="207818"/>
+          <a:off x="4849094" y="13619072"/>
+          <a:ext cx="967706" cy="225136"/>
           <a:chOff x="7036522" y="10566129"/>
           <a:chExt cx="968552" cy="225136"/>
         </a:xfrm>
@@ -37914,13 +42804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>54305</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>181521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>392131</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -37944,13 +42834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>279443</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>181521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>11132</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -37974,13 +42864,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>450257</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>190486</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -38026,13 +42916,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>467592</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>207821</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
@@ -38078,13 +42968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>356136</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>178123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>121228</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>155863</xdr:rowOff>
@@ -38108,13 +42998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>539215</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>181521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>554182</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -38138,13 +43028,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>140884</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>181521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>571489</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -38168,13 +43058,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>26490</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>138549</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -38186,8 +43076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25410615" y="15677031"/>
-          <a:ext cx="1350309" cy="324970"/>
+          <a:off x="26696490" y="15815576"/>
+          <a:ext cx="1324332" cy="342289"/>
           <a:chOff x="12683022" y="8819030"/>
           <a:chExt cx="1321915" cy="324971"/>
         </a:xfrm>
@@ -38241,6 +43131,264 @@
           <a:xfrm>
             <a:off x="12977431" y="8981516"/>
             <a:ext cx="1027506" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>390772</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Diagram 34"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId71" r:lo="rId72" r:qs="rId73" r:cs="rId74"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>268944</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>381003</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Group 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23908262" y="11970940"/>
+          <a:ext cx="1324332" cy="342289"/>
+          <a:chOff x="12683022" y="8819030"/>
+          <a:chExt cx="1321915" cy="324971"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Flowchart: Decision 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12683022" y="8819030"/>
+            <a:ext cx="294409" cy="324971"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="Straight Connector 42"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="41" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12977431" y="8981516"/>
+            <a:ext cx="1027506" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>356137</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="45" name="Diagram 44"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId76" r:lo="rId77" r:qs="rId78" r:cs="rId79"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>73349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338742</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="Group 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4364180" y="11001122"/>
+          <a:ext cx="1429789" cy="342289"/>
+          <a:chOff x="12760311" y="8786146"/>
+          <a:chExt cx="1427181" cy="324971"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Flowchart: Decision 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13893083" y="8786146"/>
+            <a:ext cx="294409" cy="324971"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDecision">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="57150"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="Straight Connector 53"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="49" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="12760311" y="8948632"/>
+            <a:ext cx="1132772" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -38558,7 +43706,7 @@
   <dimension ref="J4:K8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -38646,7 +43794,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -38654,7 +43802,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B8" s="17"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
@@ -38668,7 +43816,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -38676,13 +43824,13 @@
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B11" s="17"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -38690,19 +43838,19 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="19"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B14" s="19"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -38710,19 +43858,19 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B18" s="17"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
@@ -38765,10 +43913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E39:AK116"/>
+  <dimension ref="H39:AN116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V75" sqref="V75"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38776,132 +43924,129 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="39" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M39" s="11"/>
+    <row r="39" spans="16:16" ht="15.75" thickBot="1">
+      <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="13:13" ht="15.75" thickTop="1">
-      <c r="M40" s="13"/>
+    <row r="40" spans="16:16" ht="15.75" thickTop="1">
+      <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="13:13">
-      <c r="M41" s="12"/>
+    <row r="41" spans="16:16">
+      <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="13:13">
-      <c r="M42" s="12"/>
+    <row r="42" spans="16:16">
+      <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="13:13">
-      <c r="M43" s="12"/>
+    <row r="43" spans="16:16">
+      <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="13:13">
-      <c r="M44" s="12"/>
+    <row r="44" spans="16:16">
+      <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="13:13">
-      <c r="M45" s="12"/>
+    <row r="45" spans="16:16">
+      <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="13:13">
-      <c r="M46" s="12"/>
+    <row r="46" spans="16:16">
+      <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="13:13">
-      <c r="M47" s="12"/>
+    <row r="47" spans="16:16">
+      <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="13:13">
-      <c r="M48" s="12"/>
+    <row r="48" spans="16:16">
+      <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="5:36">
-      <c r="M49" s="12"/>
+    <row r="49" spans="8:39">
+      <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="5:36">
-      <c r="M50" s="12"/>
+    <row r="50" spans="8:39">
+      <c r="P50" s="12"/>
     </row>
-    <row r="51" spans="5:36">
-      <c r="M51" s="12"/>
+    <row r="51" spans="8:39">
+      <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="5:36">
-      <c r="M52" s="12"/>
+    <row r="52" spans="8:39">
+      <c r="P52" s="12"/>
     </row>
-    <row r="53" spans="5:36">
-      <c r="M53" s="12"/>
+    <row r="53" spans="8:39">
+      <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="5:36" ht="15.75" thickBot="1">
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="M54" s="14"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
+    <row r="54" spans="8:39" ht="15.75" thickBot="1">
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="P54" s="14"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
     </row>
-    <row r="55" spans="5:36" ht="15.75" thickTop="1">
-      <c r="E55" s="23"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="20"/>
-      <c r="M55" s="12"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
+    <row r="55" spans="8:39" ht="15.75" thickTop="1">
+      <c r="H55" s="19"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="P55" s="12"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
     </row>
-    <row r="56" spans="5:36">
-      <c r="E56" s="23"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="M56" s="12"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="15"/>
+    <row r="56" spans="8:39">
+      <c r="H56" s="19"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="P56" s="12"/>
+      <c r="AB56" s="15"/>
       <c r="AC56" s="15"/>
       <c r="AD56" s="15"/>
-      <c r="AE56" s="15"/>
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
       <c r="AH56" s="15"/>
       <c r="AI56" s="15"/>
       <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
     </row>
-    <row r="57" spans="5:36">
-      <c r="E57" s="23"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="M57" s="12"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
+    <row r="57" spans="8:39">
+      <c r="H57" s="19"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="P57" s="12"/>
+      <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
       <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
       <c r="AH57" s="15"/>
       <c r="AI57" s="15"/>
       <c r="AJ57" s="15"/>
+      <c r="AK57" s="15"/>
+      <c r="AL57" s="15"/>
+      <c r="AM57" s="15"/>
     </row>
-    <row r="58" spans="5:36">
-      <c r="E58" s="23"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="M58" s="12"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
+    <row r="58" spans="8:39">
+      <c r="H58" s="19"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="P58" s="12"/>
+      <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
       <c r="AD58" s="15"/>
-      <c r="AE58" s="15"/>
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
       <c r="AH58" s="15"/>
       <c r="AI58" s="15"/>
       <c r="AJ58" s="15"/>
+      <c r="AK58" s="15"/>
+      <c r="AL58" s="15"/>
+      <c r="AM58" s="15"/>
     </row>
-    <row r="59" spans="5:36">
-      <c r="E59" s="23"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="M59" s="12"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
+    <row r="59" spans="8:39">
+      <c r="H59" s="19"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="P59" s="12"/>
       <c r="AB59" s="15"/>
       <c r="AC59" s="15"/>
       <c r="AD59" s="15"/>
@@ -38911,16 +44056,16 @@
       <c r="AH59" s="15"/>
       <c r="AI59" s="15"/>
       <c r="AJ59" s="15"/>
+      <c r="AK59" s="15"/>
+      <c r="AL59" s="15"/>
+      <c r="AM59" s="15"/>
     </row>
-    <row r="60" spans="5:36">
-      <c r="E60" s="23"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="M60" s="12"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
+    <row r="60" spans="8:39">
+      <c r="H60" s="19"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="P60" s="12"/>
       <c r="AB60" s="15"/>
       <c r="AC60" s="15"/>
       <c r="AD60" s="15"/>
@@ -38930,16 +44075,16 @@
       <c r="AH60" s="15"/>
       <c r="AI60" s="15"/>
       <c r="AJ60" s="15"/>
+      <c r="AK60" s="15"/>
+      <c r="AL60" s="15"/>
+      <c r="AM60" s="15"/>
     </row>
-    <row r="61" spans="5:36">
-      <c r="E61" s="23"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="M61" s="12"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
+    <row r="61" spans="8:39">
+      <c r="H61" s="19"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="P61" s="12"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="15"/>
       <c r="AD61" s="15"/>
@@ -38949,16 +44094,16 @@
       <c r="AH61" s="15"/>
       <c r="AI61" s="15"/>
       <c r="AJ61" s="15"/>
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="15"/>
+      <c r="AM61" s="15"/>
     </row>
-    <row r="62" spans="5:36">
-      <c r="E62" s="23"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="M62" s="12"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
+    <row r="62" spans="8:39">
+      <c r="H62" s="19"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="P62" s="12"/>
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
       <c r="AD62" s="15"/>
@@ -38968,419 +44113,422 @@
       <c r="AH62" s="15"/>
       <c r="AI62" s="15"/>
       <c r="AJ62" s="15"/>
+      <c r="AK62" s="15"/>
+      <c r="AL62" s="15"/>
+      <c r="AM62" s="15"/>
     </row>
-    <row r="63" spans="5:36">
-      <c r="E63" s="23"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="M63" s="12"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
+    <row r="63" spans="8:39">
+      <c r="H63" s="19"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="P63" s="12"/>
+      <c r="AB63" s="15"/>
       <c r="AC63" s="15"/>
       <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
       <c r="AH63" s="15"/>
       <c r="AI63" s="15"/>
       <c r="AJ63" s="15"/>
+      <c r="AK63" s="15"/>
+      <c r="AL63" s="15"/>
+      <c r="AM63" s="15"/>
     </row>
-    <row r="64" spans="5:36">
-      <c r="E64" s="23"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="M64" s="12"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
+    <row r="64" spans="8:39">
+      <c r="H64" s="19"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="P64" s="12"/>
+      <c r="AB64" s="15"/>
       <c r="AC64" s="15"/>
       <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
       <c r="AF64" s="15"/>
       <c r="AG64" s="15"/>
       <c r="AH64" s="15"/>
       <c r="AI64" s="15"/>
       <c r="AJ64" s="15"/>
+      <c r="AK64" s="15"/>
+      <c r="AL64" s="15"/>
+      <c r="AM64" s="15"/>
     </row>
-    <row r="65" spans="5:37">
-      <c r="E65" s="23"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="M65" s="12"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
+    <row r="65" spans="8:40">
+      <c r="H65" s="19"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="P65" s="12"/>
+      <c r="AB65" s="15"/>
       <c r="AC65" s="15"/>
       <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
       <c r="AF65" s="15"/>
       <c r="AG65" s="15"/>
       <c r="AH65" s="15"/>
       <c r="AI65" s="15"/>
       <c r="AJ65" s="15"/>
+      <c r="AK65" s="15"/>
+      <c r="AL65" s="15"/>
+      <c r="AM65" s="15"/>
     </row>
-    <row r="66" spans="5:37">
-      <c r="E66" s="23"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="M66" s="12"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
+    <row r="66" spans="8:40">
+      <c r="H66" s="19"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="P66" s="12"/>
+      <c r="AB66" s="15"/>
       <c r="AC66" s="15"/>
       <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
       <c r="AF66" s="15"/>
       <c r="AG66" s="15"/>
       <c r="AH66" s="15"/>
       <c r="AI66" s="15"/>
       <c r="AJ66" s="15"/>
+      <c r="AK66" s="15"/>
+      <c r="AL66" s="15"/>
+      <c r="AM66" s="15"/>
     </row>
-    <row r="67" spans="5:37">
-      <c r="E67" s="23"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="M67" s="12"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
+    <row r="67" spans="8:40">
+      <c r="H67" s="19"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="P67" s="12"/>
+      <c r="AB67" s="15"/>
       <c r="AC67" s="15"/>
       <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
       <c r="AF67" s="15"/>
       <c r="AG67" s="15"/>
       <c r="AH67" s="15"/>
       <c r="AI67" s="15"/>
       <c r="AJ67" s="15"/>
+      <c r="AK67" s="15"/>
+      <c r="AL67" s="15"/>
+      <c r="AM67" s="15"/>
     </row>
-    <row r="68" spans="5:37">
-      <c r="E68" s="23"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="M68" s="12"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="15"/>
+    <row r="68" spans="8:40">
+      <c r="H68" s="19"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="P68" s="12"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
     </row>
-    <row r="69" spans="5:37">
-      <c r="E69" s="23"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="M69" s="12"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
+    <row r="69" spans="8:40">
+      <c r="H69" s="19"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="P69" s="12"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
     </row>
-    <row r="70" spans="5:37">
-      <c r="E70" s="23"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="M70" s="12"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="15"/>
+    <row r="70" spans="8:40">
+      <c r="H70" s="19"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="P70" s="12"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
     </row>
-    <row r="71" spans="5:37" ht="15.75" thickBot="1">
-      <c r="E71" s="23"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="M71" s="14"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
+    <row r="71" spans="8:40" ht="15.75" thickBot="1">
+      <c r="H71" s="19"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="P71" s="14"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
     </row>
-    <row r="72" spans="5:37" ht="15.75" thickTop="1">
-      <c r="E72" s="23"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="M72" s="12"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
+    <row r="72" spans="8:40" ht="15.75" thickTop="1">
+      <c r="H72" s="19"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="P72" s="12"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
     </row>
-    <row r="73" spans="5:37">
-      <c r="E73" s="23"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="M73" s="12"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
+    <row r="73" spans="8:40">
+      <c r="H73" s="19"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="P73" s="12"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
     </row>
-    <row r="74" spans="5:37">
-      <c r="E74" s="23"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="M74" s="12"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
+    <row r="74" spans="8:40">
+      <c r="H74" s="19"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="P74" s="12"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
     </row>
-    <row r="75" spans="5:37">
-      <c r="E75" s="23"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="M75" s="12"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="25"/>
+    <row r="75" spans="8:40">
+      <c r="H75" s="19"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="P75" s="12"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="21"/>
     </row>
-    <row r="76" spans="5:37">
-      <c r="E76" s="23"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="M76" s="12"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
-      <c r="AA76" s="15"/>
-      <c r="AG76" s="12"/>
-      <c r="AH76" s="25"/>
+    <row r="76" spans="8:40">
+      <c r="H76" s="19"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="P76" s="12"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="21"/>
     </row>
-    <row r="77" spans="5:37" ht="15.75" thickBot="1">
-      <c r="E77" s="23"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="M77" s="12"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
-      <c r="AG77" s="14"/>
-      <c r="AH77" s="26"/>
+    <row r="77" spans="8:40" ht="15.75" thickBot="1">
+      <c r="H77" s="19"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="P77" s="12"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AJ77" s="14"/>
+      <c r="AK77" s="22"/>
     </row>
-    <row r="78" spans="5:37" ht="15.75" thickTop="1">
-      <c r="E78" s="23"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="M78" s="12"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="27"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="27"/>
-      <c r="AJ78" s="27"/>
-      <c r="AK78" s="13"/>
+    <row r="78" spans="8:40" ht="15.75" thickTop="1">
+      <c r="H78" s="19"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="P78" s="12"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="23"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="23"/>
+      <c r="AM78" s="23"/>
+      <c r="AN78" s="13"/>
     </row>
-    <row r="79" spans="5:37">
-      <c r="E79" s="23"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="M79" s="12"/>
-      <c r="AE79" s="25"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="15"/>
-      <c r="AH79" s="15"/>
+    <row r="79" spans="8:40">
+      <c r="H79" s="19"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="P79" s="12"/>
+      <c r="AH79" s="21"/>
       <c r="AI79" s="15"/>
       <c r="AJ79" s="15"/>
-      <c r="AK79" s="12"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="15"/>
+      <c r="AN79" s="12"/>
     </row>
-    <row r="80" spans="5:37">
-      <c r="E80" s="23"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="M80" s="12"/>
+    <row r="80" spans="8:40">
+      <c r="H80" s="19"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="P80" s="12"/>
     </row>
-    <row r="81" spans="5:13">
-      <c r="E81" s="23"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="M81" s="12"/>
+    <row r="81" spans="8:16">
+      <c r="H81" s="19"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="P81" s="12"/>
     </row>
-    <row r="82" spans="5:13">
-      <c r="E82" s="23"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="M82" s="12"/>
+    <row r="82" spans="8:16">
+      <c r="H82" s="19"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="P82" s="12"/>
     </row>
-    <row r="83" spans="5:13">
-      <c r="E83" s="23"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="M83" s="12"/>
+    <row r="83" spans="8:16">
+      <c r="H83" s="19"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="P83" s="12"/>
     </row>
-    <row r="84" spans="5:13" ht="15.75" thickBot="1">
-      <c r="E84" s="23"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="M84" s="14"/>
+    <row r="84" spans="8:16" ht="15.75" thickBot="1">
+      <c r="H84" s="19"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="P84" s="14"/>
     </row>
-    <row r="85" spans="5:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E85" s="23"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="15"/>
-      <c r="M85" s="12"/>
+    <row r="85" spans="8:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H85" s="19"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="15"/>
+      <c r="P85" s="12"/>
     </row>
-    <row r="86" spans="5:13" ht="15.75" thickTop="1">
-      <c r="E86" s="23"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="M86" s="12"/>
+    <row r="86" spans="8:16" ht="15.75" thickTop="1">
+      <c r="H86" s="19"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="P86" s="12"/>
     </row>
-    <row r="87" spans="5:13">
-      <c r="E87" s="23"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="M87" s="12"/>
+    <row r="87" spans="8:16">
+      <c r="H87" s="19"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="P87" s="12"/>
     </row>
-    <row r="88" spans="5:13">
-      <c r="E88" s="23"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="M88" s="12"/>
+    <row r="88" spans="8:16">
+      <c r="H88" s="19"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="5:13">
-      <c r="E89" s="23"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="M89" s="12"/>
+    <row r="89" spans="8:16">
+      <c r="H89" s="19"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="P89" s="12"/>
     </row>
-    <row r="90" spans="5:13">
-      <c r="E90" s="23"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="M90" s="12"/>
+    <row r="90" spans="8:16">
+      <c r="H90" s="19"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="P90" s="12"/>
     </row>
-    <row r="91" spans="5:13">
-      <c r="E91" s="23"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="M91" s="12"/>
+    <row r="91" spans="8:16">
+      <c r="H91" s="19"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="5:13">
-      <c r="E92" s="23"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="M92" s="12"/>
+    <row r="92" spans="8:16">
+      <c r="H92" s="19"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="P92" s="12"/>
     </row>
-    <row r="93" spans="5:13">
-      <c r="E93" s="23"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="M93" s="12"/>
+    <row r="93" spans="8:16">
+      <c r="H93" s="19"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="P93" s="12"/>
     </row>
-    <row r="94" spans="5:13">
-      <c r="E94" s="23"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="M94" s="12"/>
+    <row r="94" spans="8:16">
+      <c r="H94" s="19"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="P94" s="12"/>
     </row>
-    <row r="95" spans="5:13">
-      <c r="E95" s="23"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="M95" s="12"/>
+    <row r="95" spans="8:16">
+      <c r="H95" s="19"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="P95" s="12"/>
     </row>
-    <row r="96" spans="5:13">
-      <c r="E96" s="23"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="M96" s="12"/>
+    <row r="96" spans="8:16">
+      <c r="H96" s="19"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="P96" s="12"/>
     </row>
-    <row r="97" spans="5:13" ht="15.75" thickBot="1">
-      <c r="E97" s="23"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="M97" s="14"/>
+    <row r="97" spans="8:16" ht="15.75" thickBot="1">
+      <c r="H97" s="19"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="P97" s="14"/>
     </row>
-    <row r="98" spans="5:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E98" s="23"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="21"/>
-      <c r="M98" s="13"/>
+    <row r="98" spans="8:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="H98" s="19"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="17"/>
+      <c r="P98" s="13"/>
     </row>
-    <row r="99" spans="5:13" ht="15.75" thickTop="1">
-      <c r="M99" s="12"/>
+    <row r="99" spans="8:16" ht="15.75" thickTop="1">
+      <c r="P99" s="12"/>
     </row>
-    <row r="100" spans="5:13">
-      <c r="M100" s="12"/>
+    <row r="100" spans="8:16">
+      <c r="P100" s="12"/>
     </row>
-    <row r="101" spans="5:13">
-      <c r="M101" s="12"/>
+    <row r="101" spans="8:16">
+      <c r="P101" s="12"/>
     </row>
-    <row r="102" spans="5:13">
-      <c r="M102" s="12"/>
+    <row r="102" spans="8:16">
+      <c r="P102" s="12"/>
     </row>
-    <row r="103" spans="5:13">
-      <c r="M103" s="12"/>
+    <row r="103" spans="8:16">
+      <c r="P103" s="12"/>
     </row>
-    <row r="104" spans="5:13">
-      <c r="M104" s="12"/>
+    <row r="104" spans="8:16">
+      <c r="P104" s="12"/>
     </row>
-    <row r="105" spans="5:13">
-      <c r="M105" s="12"/>
+    <row r="105" spans="8:16">
+      <c r="P105" s="12"/>
     </row>
-    <row r="106" spans="5:13">
-      <c r="M106" s="12"/>
+    <row r="106" spans="8:16">
+      <c r="P106" s="12"/>
     </row>
-    <row r="107" spans="5:13">
-      <c r="M107" s="12"/>
+    <row r="107" spans="8:16">
+      <c r="P107" s="12"/>
     </row>
-    <row r="108" spans="5:13">
-      <c r="M108" s="12"/>
+    <row r="108" spans="8:16">
+      <c r="P108" s="12"/>
     </row>
-    <row r="109" spans="5:13">
-      <c r="M109" s="12"/>
+    <row r="109" spans="8:16">
+      <c r="P109" s="12"/>
     </row>
-    <row r="110" spans="5:13">
-      <c r="M110" s="12"/>
+    <row r="110" spans="8:16">
+      <c r="P110" s="12"/>
     </row>
-    <row r="111" spans="5:13">
-      <c r="M111" s="12"/>
+    <row r="111" spans="8:16">
+      <c r="P111" s="12"/>
     </row>
-    <row r="112" spans="5:13">
-      <c r="M112" s="12"/>
+    <row r="112" spans="8:16">
+      <c r="P112" s="12"/>
     </row>
-    <row r="113" spans="13:13">
-      <c r="M113" s="12"/>
+    <row r="113" spans="16:16">
+      <c r="P113" s="12"/>
     </row>
-    <row r="114" spans="13:13">
-      <c r="M114" s="12"/>
+    <row r="114" spans="16:16">
+      <c r="P114" s="12"/>
     </row>
-    <row r="115" spans="13:13" ht="15.75" thickBot="1">
-      <c r="M115" s="14"/>
+    <row r="115" spans="16:16" ht="15.75" thickBot="1">
+      <c r="P115" s="14"/>
     </row>
-    <row r="116" spans="13:13" ht="15.75" thickTop="1"/>
+    <row r="116" spans="16:16" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>

--- a/doc/UART_VIP.xlsx
+++ b/doc/UART_VIP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENV" sheetId="2" r:id="rId1"/>
@@ -6430,6 +6430,2247 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
@@ -12481,7 +14722,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic flow_control</a:t>
+            <a:t>flow_control_type flow_control</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -12529,7 +14770,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic stop_bit</a:t>
+            <a:t>stop_bit_type stop_bit</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -12614,7 +14855,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>parity_type t_parity</a:t>
+            <a:t>parity_type parity</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -12694,7 +14935,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [3:0] word_length</a:t>
+            <a:t>data_type data</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -14220,7 +16461,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>RX</a:t>
+            <a:t>RECEIVE</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -14260,7 +16501,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>TX</a:t>
+            <a:t>TRANSMIT</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -14342,13 +16583,13 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{C2697C18-482D-4611-BB5E-6AF9778BD6CF}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{C1745A9B-CA42-49EC-BA2F-2B513E70FAF3}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2476B604-848F-4856-AAF5-EA9766463698}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2A21EE72-2D67-4931-9281-64DA397E6C5A}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{C2697C18-482D-4611-BB5E-6AF9778BD6CF}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
-    <dgm:cxn modelId="{C1745A9B-CA42-49EC-BA2F-2B513E70FAF3}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
     <dgm:cxn modelId="{496751BF-2527-4FAA-8575-0FA1FAF6F417}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{33F0A7A5-9AA7-4AC0-8F64-00E8144FC5DD}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{BC5B6002-2974-4435-AEFC-628EC3C35643}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -14584,7 +16825,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
-      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="68820" custLinFactNeighborX="-1527" custLinFactNeighborY="100000">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="86190" custLinFactNeighborX="-2024" custLinFactNeighborY="100000">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
@@ -14618,6 +16859,744 @@
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
       <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId80" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data17.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  data_type</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_8BIT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_7BIT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" type="parTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}" type="sibTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_6BIT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7AC16DA-6194-4074-9832-9DCC9409A1CF}" type="parTrans" cxnId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68EAFDA3-BA71-4061-AAFF-6CC288D0FC6F}" type="sibTrans" cxnId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CB2E6319-E4FE-4587-AE39-A4F59D17B8D3}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_5BIT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{85222B0F-E2A7-4F78-9CCE-49267BCCA61B}" type="parTrans" cxnId="{0A1A3DED-BF4F-4065-A901-EC8479C12938}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C7CC2F4-11C6-4F3F-8100-51F524B40910}" type="sibTrans" cxnId="{0A1A3DED-BF4F-4065-A901-EC8479C12938}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="86190" custLinFactNeighborX="-2024" custLinFactNeighborY="100000">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
+    <dgm:cxn modelId="{7EBF1271-D630-45DE-A9BA-079496ED77C1}" type="presOf" srcId="{CB2E6319-E4FE-4587-AE39-A4F59D17B8D3}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{04D8DBD0-5996-443D-B56A-69D5444429AE}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{7A561F2B-04E9-42F2-A460-4160ABC1BEF2}" type="presOf" srcId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E5057BB9-B29F-4734-A3D9-B6BD04AF18DD}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}" srcOrd="2" destOrd="0" parTransId="{C7AC16DA-6194-4074-9832-9DCC9409A1CF}" sibTransId="{68EAFDA3-BA71-4061-AAFF-6CC288D0FC6F}"/>
+    <dgm:cxn modelId="{750F104F-80C9-474A-A41A-6D1AD853ADEA}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{54691B75-DEEB-45DF-A4F0-CC7D37B52FE0}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{0A1A3DED-BF4F-4065-A901-EC8479C12938}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{CB2E6319-E4FE-4587-AE39-A4F59D17B8D3}" srcOrd="3" destOrd="0" parTransId="{85222B0F-E2A7-4F78-9CCE-49267BCCA61B}" sibTransId="{6C7CC2F4-11C6-4F3F-8100-51F524B40910}"/>
+    <dgm:cxn modelId="{ABB20229-C321-4F53-B6D3-EF70B034B72B}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{170BDB62-ABCE-46EC-B1D7-D3E78EC1C2F1}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{5A854586-3711-47A9-95C5-298F9B6F6533}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId85" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data18.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  flow_control_type</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>HARDWARE</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>NONE</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7AC16DA-6194-4074-9832-9DCC9409A1CF}" type="parTrans" cxnId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68EAFDA3-BA71-4061-AAFF-6CC288D0FC6F}" type="sibTrans" cxnId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="86190" custLinFactNeighborX="-2024" custLinFactNeighborY="100000">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{C50560F4-F8C3-4A5F-BAE4-2839F65AA504}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{7A2581C7-DB8F-4B13-819B-AE12550323DC}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{77E2835C-B83F-429A-991B-80DE44DB7ABB}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{D8A53F15-B1B1-4184-89AF-E5A2C90E98D5}" type="presOf" srcId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{4476E442-F57C-48CC-AFDF-92BD52ACBC90}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E98622B7-6DE4-4D25-AF57-BD3C42AA76B3}" srcOrd="1" destOrd="0" parTransId="{C7AC16DA-6194-4074-9832-9DCC9409A1CF}" sibTransId="{68EAFDA3-BA71-4061-AAFF-6CC288D0FC6F}"/>
+    <dgm:cxn modelId="{192D0CFE-D8E5-4982-9117-78DD39D818D1}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{25347EFE-5B76-4224-B320-14661397A7D2}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CB8337A5-3F82-42C9-BE51-234C9F5C036D}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId90" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data19.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  stop_bit_type</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" type="parTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}" type="sibTrans" cxnId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6348CB7A-34E5-43E4-A517-0489C2442009}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>STOP_1BIT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" type="parTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{755ACDDE-916B-4403-8CE9-12FEC5592762}" type="sibTrans" cxnId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>STOP_2BIT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" type="parTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}" type="sibTrans" cxnId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" type="pres">
+      <dgm:prSet presAssocID="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" type="pres">
+      <dgm:prSet presAssocID="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custLinFactY="86190" custLinFactNeighborX="-2024" custLinFactNeighborY="100000">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
+    <dgm:cxn modelId="{584870F2-346B-4A29-ABEE-D8D9C3F7E487}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{398D2FEE-E54E-4D31-8986-5915F56C0A0D}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{338C465D-8422-4724-949D-BB650611EC7D}" type="presOf" srcId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{EB39A9B2-0433-4E22-9620-0DCB6DE51E0F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{674F3DCE-9E44-40B1-8226-EC5F38C1493F}" srcOrd="1" destOrd="0" parTransId="{01B56AF4-9208-4D95-9A86-302A99BEA242}" sibTransId="{F3DDBB99-C2E3-43EC-88DB-CEBC5445966E}"/>
+    <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{8E536F00-E9C8-4215-8113-2E2EDC2D063A}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{5F49898A-9715-4FA8-AD5E-F672CBC4F1A6}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B8A7FF36-E572-42F1-B795-B3D4CC8FD92D}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{8EFAD929-8E52-4AD4-ACF5-F37B3BFDD111}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId95" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -15360,8 +18339,8 @@
     <dgm:cxn modelId="{BF4C7292-C9E5-4D41-88CB-E345F9DE7164}" type="presOf" srcId="{38D7F36C-1235-4036-8695-BE1827862A1F}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
     <dgm:cxn modelId="{5259D9C5-274C-4F7D-ABA1-60AB8CBAD4EE}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" srcOrd="4" destOrd="0" parTransId="{A54816E9-C29A-42D2-B571-DCBB173BFA86}" sibTransId="{D5F8B224-A3E6-4BCD-AED4-F28697270DDA}"/>
+    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
     <dgm:cxn modelId="{6EA39D44-464F-4F25-945A-7A2818507C56}" type="presOf" srcId="{BF1DEC3B-86C5-4457-9951-18612FE14A63}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="3" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
     <dgm:cxn modelId="{D0967EAA-DD29-411F-9FD2-52C592FAFCB8}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7A97374B-1F4C-4C67-BDDC-57B4ABAA7786}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{A4A56E0A-A963-47D2-9788-9B00AB1C12BE}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -16228,46 +19207,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{912DBFA3-D9F1-4D36-98C9-ACB49311E9A8}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>logic parity[$]</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{49B238D8-F969-424A-8228-1E913C1D1321}" type="parTrans" cxnId="{7FCEEC27-D950-4AED-B3CB-1F3112FA8A08}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{08652B6F-10F8-48D1-9275-945557E23496}" type="sibTrans" cxnId="{7FCEEC27-D950-4AED-B3CB-1F3112FA8A08}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}">
       <dgm:prSet phldrT="[Text]" custT="1"/>
       <dgm:spPr/>
@@ -16298,46 +19237,6 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F9C0FF4E-9A3A-404D-8619-FAAF1D330B5E}" type="sibTrans" cxnId="{1E33CD26-72BD-4154-91FB-184EA45471EC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}">
-      <dgm:prSet phldrT="[Text]" custT="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>interrupt m_int</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C75564ED-E406-47AF-9CDA-F057AD9E1C6E}" type="parTrans" cxnId="{084BD358-B298-433C-86DF-66FEF58C086C}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{AAC09676-1B07-4897-AAC9-C33A8AD7149D}" type="sibTrans" cxnId="{084BD358-B298-433C-86DF-66FEF58C086C}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -16403,17 +19302,13 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{90F347A1-2E67-45A2-9E3F-A90D6FEA1F89}" type="presOf" srcId="{912DBFA3-D9F1-4D36-98C9-ACB49311E9A8}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{A3158361-E90B-4104-BF7A-6F239652E541}" type="presOf" srcId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A3158361-E90B-4104-BF7A-6F239652E541}" type="presOf" srcId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{51C0BC2B-A5A7-45F7-ADF6-84BB02E0BAD9}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{6348CB7A-34E5-43E4-A517-0489C2442009}" srcOrd="0" destOrd="0" parTransId="{1EA6AA9A-B483-4008-80E6-E7A069156494}" sibTransId="{755ACDDE-916B-4403-8CE9-12FEC5592762}"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
-    <dgm:cxn modelId="{1E33CD26-72BD-4154-91FB-184EA45471EC}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" srcOrd="4" destOrd="0" parTransId="{1C68E4F7-8646-4491-9E14-2DBC3485364C}" sibTransId="{F9C0FF4E-9A3A-404D-8619-FAAF1D330B5E}"/>
-    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="3" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
-    <dgm:cxn modelId="{AF35B0A4-1B50-424D-A4AF-91A5428FDAAF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{4DAA9A2E-D08E-4816-B2F5-3440141B1D48}" type="presOf" srcId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{1E33CD26-72BD-4154-91FB-184EA45471EC}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E985068B-F905-4E2F-8C75-FDA50A763A0C}" srcOrd="2" destOrd="0" parTransId="{1C68E4F7-8646-4491-9E14-2DBC3485364C}" sibTransId="{F9C0FF4E-9A3A-404D-8619-FAAF1D330B5E}"/>
+    <dgm:cxn modelId="{3BF00693-260B-4CF9-9212-DCC4A45E746F}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" srcOrd="1" destOrd="0" parTransId="{D55CD25D-8098-4B39-96E8-83BC58712044}" sibTransId="{9D27F7B9-ED33-4010-9D71-C2381FF11410}"/>
+    <dgm:cxn modelId="{AF35B0A4-1B50-424D-A4AF-91A5428FDAAF}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7AB82F1E-0EC6-4611-8A55-0A13AFC29490}" type="presOf" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{7FCEEC27-D950-4AED-B3CB-1F3112FA8A08}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{912DBFA3-D9F1-4D36-98C9-ACB49311E9A8}" srcOrd="1" destOrd="0" parTransId="{49B238D8-F969-424A-8228-1E913C1D1321}" sibTransId="{08652B6F-10F8-48D1-9275-945557E23496}"/>
-    <dgm:cxn modelId="{084BD358-B298-433C-86DF-66FEF58C086C}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{63501E6B-9377-4DDF-B0EE-99D88E648B59}" srcOrd="2" destOrd="0" parTransId="{C75564ED-E406-47AF-9CDA-F057AD9E1C6E}" sibTransId="{AAC09676-1B07-4897-AAC9-C33A8AD7149D}"/>
     <dgm:cxn modelId="{DA00DF58-CE79-47CB-8BD1-6E1060DCE06B}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{2A05732B-B6A8-42C9-ACD8-3C08416F2D2E}" type="presOf" srcId="{6348CB7A-34E5-43E4-A517-0489C2442009}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{7C564E23-FC06-4AB4-979B-27E85B8235FA}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -17121,9 +20016,9 @@
     <dgm:cxn modelId="{32018433-8BF2-447F-8A98-991D20B71B0E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{238FC6B2-B524-48B8-A864-08A6947FDEED}" srcOrd="1" destOrd="0" parTransId="{6EA592CE-C67F-4D9B-89B1-0830E047B983}" sibTransId="{03EB9485-DD57-48D5-8092-F309CE650283}"/>
     <dgm:cxn modelId="{69DD3D56-E36B-45E7-8AB0-8C0382435E62}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" srcOrd="3" destOrd="0" parTransId="{12E64ECE-011C-4E63-9813-1F5EF744629C}" sibTransId="{D2D9842D-41C7-4725-8307-6FA2D9FE111D}"/>
     <dgm:cxn modelId="{CF0FC362-C9B2-4C9C-8FAE-A49E9CB03415}" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" srcOrd="0" destOrd="0" parTransId="{006C55B3-FAA2-4916-87D1-ED0F1CB14F18}" sibTransId="{990BFF87-A0E9-4253-994C-6DB4FF86434F}"/>
+    <dgm:cxn modelId="{E0719066-2F0F-465F-824E-79E2CE24C5E7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
     <dgm:cxn modelId="{F03D3CA9-B4A6-4BE4-9D25-7ECDAD037BFE}" type="presOf" srcId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6BC16121-CAFF-4A41-A6E1-DD9132D337B2}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" srcOrd="0" destOrd="0" parTransId="{96FF637B-0929-4428-8FD3-628A03C4B7E3}" sibTransId="{07BD246A-C68C-4E8E-9739-C64D8742A13C}"/>
-    <dgm:cxn modelId="{E0719066-2F0F-465F-824E-79E2CE24C5E7}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F5AC567B-C224-43C8-978B-1EDD0F43017E}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{8D100B8F-F474-46A7-B7A1-492EA9CB9BF1}" srcOrd="2" destOrd="0" parTransId="{3F3F2AFD-67F4-4CBE-9933-FF969E593882}" sibTransId="{AC28970D-F7C8-4CC3-A8FB-D8F64A44BB88}"/>
     <dgm:cxn modelId="{B5712722-DA95-4E8A-BC4D-659A135A6E94}" type="presOf" srcId="{238FC6B2-B524-48B8-A864-08A6947FDEED}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{818B937E-A1E7-4008-8FBF-D9E059C75FB2}" type="presOf" srcId="{391815BF-66C9-4075-9167-8D276FC8B3F5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -17528,8 +20423,8 @@
     <dgm:cxn modelId="{8823477F-9C8F-45DE-8EE0-21867E85C92E}" type="presOf" srcId="{44F36A43-0B9F-4CA4-90BE-8D29552F6DEB}" destId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{3D4F8E8D-DEE8-48CC-8A10-17663E041743}" srcId="{8FB05AE9-B4B5-4C70-A312-CEA3399A2FBF}" destId="{38D7F36C-1235-4036-8695-BE1827862A1F}" srcOrd="5" destOrd="0" parTransId="{EA093A88-2EB6-4221-872F-6C1BD1CBE7FF}" sibTransId="{E8CE90DA-9343-4E45-A865-DB24BBAFFDC5}"/>
     <dgm:cxn modelId="{42D13303-3730-42E6-B368-E96D08D20776}" type="presOf" srcId="{7AC4374C-CA59-4C73-AFD9-A97517C47AE5}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6C613261-E103-4938-BEE0-9597300E8063}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{9FDA69D9-20E3-45EA-9C6C-5537F0D8362D}" type="presOf" srcId="{BCAA2FE5-BA2D-4ED9-8B95-146B96E8F768}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
-    <dgm:cxn modelId="{6C613261-E103-4938-BEE0-9597300E8063}" type="presOf" srcId="{E0EB5D35-9E9A-4CD7-961D-46CF87631B56}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{F01A55E7-142C-4722-AE83-D067088FAF3A}" type="presParOf" srcId="{A26E0972-3BFD-4EE3-8F40-3FB96BB20D5D}" destId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{8D75881D-A004-4F43-B22B-6D1744B64E31}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
     <dgm:cxn modelId="{6813A967-9793-4566-A361-4BCE4CA37347}" type="presParOf" srcId="{B26A14E7-B120-4386-AF6E-AD51EE9D29A0}" destId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
@@ -17559,8 +20454,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="9065"/>
-          <a:ext cx="3454606" cy="518400"/>
+          <a:off x="0" y="5817"/>
+          <a:ext cx="3454606" cy="576000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17628,8 +20523,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="9065"/>
-        <a:ext cx="3454606" cy="518400"/>
+        <a:off x="0" y="5817"/>
+        <a:ext cx="3454606" cy="576000"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -17639,8 +20534,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="527464"/>
-          <a:ext cx="3454606" cy="2322269"/>
+          <a:off x="0" y="581817"/>
+          <a:ext cx="3454606" cy="2305799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17706,7 +20601,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic flow_control</a:t>
+            <a:t>flow_control_type flow_control</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17728,7 +20623,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic stop_bit</a:t>
+            <a:t>stop_bit_type stop_bit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17750,7 +20645,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>parity_type t_parity</a:t>
+            <a:t>parity_type parity</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17794,7 +20689,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic [3:0] word_length</a:t>
+            <a:t>data_type data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17840,8 +20735,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="527464"/>
-        <a:ext cx="3454606" cy="2322269"/>
+        <a:off x="0" y="581817"/>
+        <a:ext cx="3454606" cy="2305799"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -17863,7 +20758,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="18605"/>
+          <a:off x="0" y="27264"/>
           <a:ext cx="3974643" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17932,7 +20827,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="18605"/>
+        <a:off x="0" y="27264"/>
         <a:ext cx="3974643" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -17943,7 +20838,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="940205"/>
+          <a:off x="0" y="948864"/>
           <a:ext cx="3974643" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18059,7 +20954,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="940205"/>
+        <a:off x="0" y="948864"/>
         <a:ext cx="3974643" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -18082,7 +20977,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="18605"/>
+          <a:off x="0" y="27264"/>
           <a:ext cx="3974643" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18151,7 +21046,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="18605"/>
+        <a:off x="0" y="27264"/>
         <a:ext cx="3974643" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -18162,7 +21057,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="940205"/>
+          <a:off x="0" y="948864"/>
           <a:ext cx="3974643" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18278,7 +21173,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="940205"/>
+        <a:off x="0" y="948864"/>
         <a:ext cx="3974643" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -18622,7 +21517,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="940205"/>
+          <a:off x="0" y="948864"/>
           <a:ext cx="4864058" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18716,7 +21611,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="940205"/>
+        <a:off x="0" y="948864"/>
         <a:ext cx="4864058" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -18819,7 +21714,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="940205"/>
+          <a:off x="0" y="948864"/>
           <a:ext cx="4673558" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18913,7 +21808,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="940205"/>
+        <a:off x="0" y="948864"/>
         <a:ext cx="4673558" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -19083,7 +21978,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>RX</a:t>
+            <a:t>RECEIVE</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19105,7 +22000,7 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>TX</a:t>
+            <a:t>TRANSMIT</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
@@ -19133,7 +22028,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="13327"/>
+          <a:off x="0" y="30645"/>
           <a:ext cx="3401910" cy="748800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19202,7 +22097,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="13327"/>
+        <a:off x="0" y="30645"/>
         <a:ext cx="3401910" cy="748800"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -19213,7 +22108,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="775454"/>
+          <a:off x="0" y="810091"/>
           <a:ext cx="3401910" cy="1141919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19329,8 +22224,643 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="775454"/>
+        <a:off x="0" y="810091"/>
         <a:ext cx="3401910" cy="1141919"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1756"/>
+          <a:ext cx="3401910" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  data_type</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="1756"/>
+        <a:ext cx="3401910" cy="576000"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="579512"/>
+          <a:ext cx="3401910" cy="1372500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_8BIT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_7BIT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_6BIT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DATA_5BIT</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="579512"/>
+        <a:ext cx="3401910" cy="1372500"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11603"/>
+          <a:ext cx="3401910" cy="777600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  flow_control_type</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="11603"/>
+        <a:ext cx="3401910" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="800808"/>
+          <a:ext cx="3401910" cy="1185839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>HARDWARE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>NONE</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="800808"/>
+        <a:ext cx="3401910" cy="1185839"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EB5A98E3-63F7-4DD9-A6BE-763CE2D759A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28878"/>
+          <a:ext cx="3401910" cy="633600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="85344" tIns="48768" rIns="85344" bIns="48768" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>enum  stop_bit_type</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="28878"/>
+        <a:ext cx="3401910" cy="633600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="691356"/>
+          <a:ext cx="3401910" cy="966239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="64008" rIns="85344" bIns="96012" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>STOP_1BIT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200">
+              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>STOP_2BIT</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="691356"/>
+        <a:ext cx="3401910" cy="966239"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -19615,8 +23145,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="2559"/>
-          <a:ext cx="3434814" cy="720000"/>
+          <a:off x="0" y="1361"/>
+          <a:ext cx="3434814" cy="748800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19684,8 +23214,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="2559"/>
-        <a:ext cx="3434814" cy="720000"/>
+        <a:off x="0" y="1361"/>
+        <a:ext cx="3434814" cy="748800"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -19695,8 +23225,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="722559"/>
-          <a:ext cx="3434814" cy="1990125"/>
+          <a:off x="0" y="750161"/>
+          <a:ext cx="3434814" cy="1998359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19877,8 +23407,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="722559"/>
-        <a:ext cx="3434814" cy="1990125"/>
+        <a:off x="0" y="750161"/>
+        <a:ext cx="3434814" cy="1998359"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -20423,8 +23953,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="19865"/>
-          <a:ext cx="3974643" cy="633600"/>
+          <a:off x="0" y="35923"/>
+          <a:ext cx="3974643" cy="921600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20492,8 +24022,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="19865"/>
-        <a:ext cx="3974643" cy="633600"/>
+        <a:off x="0" y="35923"/>
+        <a:ext cx="3974643" cy="921600"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -20503,8 +24033,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="653465"/>
-          <a:ext cx="3974643" cy="1690919"/>
+          <a:off x="0" y="957524"/>
+          <a:ext cx="3974643" cy="1405439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20592,50 +24122,6 @@
               <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>logic parity[$]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>interrupt m_int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:latin typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="Meiryo" pitchFamily="34" charset="-128"/>
-            </a:rPr>
             <a:t>+ function new()</a:t>
           </a:r>
         </a:p>
@@ -20663,8 +24149,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="653465"/>
-        <a:ext cx="3974643" cy="1690919"/>
+        <a:off x="0" y="957524"/>
+        <a:ext cx="3974643" cy="1405439"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -20971,8 +24457,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="16870"/>
-          <a:ext cx="3402652" cy="950400"/>
+          <a:off x="0" y="6487"/>
+          <a:ext cx="3402652" cy="979200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21040,8 +24526,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="16870"/>
-        <a:ext cx="3402652" cy="950400"/>
+        <a:off x="0" y="6487"/>
+        <a:ext cx="3402652" cy="979200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -21051,8 +24537,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="967270"/>
-          <a:ext cx="3402652" cy="1449359"/>
+          <a:off x="0" y="985688"/>
+          <a:ext cx="3402652" cy="1493279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21189,8 +24675,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="967270"/>
-        <a:ext cx="3402652" cy="1449359"/>
+        <a:off x="0" y="985688"/>
+        <a:ext cx="3402652" cy="1493279"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -21212,8 +24698,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="24546"/>
-          <a:ext cx="4668610" cy="1814400"/>
+          <a:off x="0" y="22821"/>
+          <a:ext cx="4668610" cy="1843200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21281,8 +24767,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="24546"/>
-        <a:ext cx="4668610" cy="1814400"/>
+        <a:off x="0" y="22821"/>
+        <a:ext cx="4668610" cy="1843200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73EE9ED5-4956-48F4-8D86-8CB0C9B1E543}">
@@ -21292,8 +24778,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1838946"/>
-          <a:ext cx="4668610" cy="2766959"/>
+          <a:off x="0" y="1866021"/>
+          <a:ext cx="4668610" cy="2810879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21474,8 +24960,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1838946"/>
-        <a:ext cx="4668610" cy="2766959"/>
+        <a:off x="0" y="1866021"/>
+        <a:ext cx="4668610" cy="2810879"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -23002,6 +26488,657 @@
 </file>
 
 <file path=xl/diagrams/layout16.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout17.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout18.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout19.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -33226,6 +37363,3108 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle17.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle18.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle19.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -42525,8 +49764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16946354" y="15867530"/>
-          <a:ext cx="1324332" cy="342289"/>
+          <a:off x="16946354" y="16006076"/>
+          <a:ext cx="1324332" cy="342288"/>
           <a:chOff x="12683022" y="8819030"/>
           <a:chExt cx="1321915" cy="324971"/>
         </a:xfrm>
@@ -42624,7 +49863,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9690759" y="9878345"/>
+          <a:off x="9690759" y="9912982"/>
           <a:ext cx="1937526" cy="225136"/>
           <a:chOff x="6061364" y="10566129"/>
           <a:chExt cx="1943710" cy="225136"/>
@@ -42723,7 +49962,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4849094" y="13619072"/>
+          <a:off x="4849094" y="13722981"/>
           <a:ext cx="967706" cy="225136"/>
           <a:chOff x="7036522" y="10566129"/>
           <a:chExt cx="968552" cy="225136"/>
@@ -43076,8 +50315,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26696490" y="15815576"/>
-          <a:ext cx="1324332" cy="342289"/>
+          <a:off x="26696490" y="15954122"/>
+          <a:ext cx="1324332" cy="342288"/>
           <a:chOff x="12683022" y="8819030"/>
           <a:chExt cx="1321915" cy="324971"/>
         </a:xfrm>
@@ -43205,7 +50444,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23908262" y="11970940"/>
+          <a:off x="23908262" y="12040212"/>
           <a:ext cx="1324332" cy="342289"/>
           <a:chOff x="12683022" y="8819030"/>
           <a:chExt cx="1321915" cy="324971"/>
@@ -43286,14 +50525,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>356137</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>512005</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>160805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277097</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>173180</xdr:rowOff>
     </xdr:to>
@@ -43316,16 +50555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>121225</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277089</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>73349</xdr:rowOff>
+      <xdr:rowOff>21395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>338742</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>34638</xdr:rowOff>
+      <xdr:colOff>338740</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -43334,10 +50573,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4364180" y="11001122"/>
-          <a:ext cx="1429789" cy="342289"/>
-          <a:chOff x="12760311" y="8786146"/>
-          <a:chExt cx="1427181" cy="324971"/>
+          <a:off x="3913907" y="10983804"/>
+          <a:ext cx="1880060" cy="376925"/>
+          <a:chOff x="12310861" y="8786146"/>
+          <a:chExt cx="1876631" cy="324971"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -43387,8 +50626,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="12760311" y="8948632"/>
-            <a:ext cx="1132772" cy="0"/>
+            <a:off x="12310861" y="8948632"/>
+            <a:ext cx="1582222" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -43411,6 +50650,96 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546641</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>178129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311733</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>138550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="55" name="Diagram 54"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId81" r:lo="rId82" r:qs="rId83" r:cs="rId84"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>529323</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>39579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294415</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="56" name="Diagram 55"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId86" r:lo="rId87" r:qs="rId88" r:cs="rId89"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563959</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>160811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>329051</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="57" name="Diagram 56"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId91" r:lo="rId92" r:qs="rId93" r:cs="rId94"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -43764,8 +51093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43913,10 +51242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H39:AN116"/>
+  <dimension ref="G39:AN116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO53" sqref="AO53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43924,52 +51253,61 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="39" spans="16:16" ht="15.75" thickBot="1">
+    <row r="39" spans="7:16" ht="15.75" thickBot="1">
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="16:16" ht="15.75" thickTop="1">
+    <row r="40" spans="7:16" ht="15.75" thickTop="1">
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="16:16">
+    <row r="41" spans="7:16">
       <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="16:16">
+    <row r="42" spans="7:16">
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="16:16">
+    <row r="43" spans="7:16">
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="16:16">
+    <row r="44" spans="7:16">
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="16:16">
+    <row r="45" spans="7:16" ht="15.75" thickBot="1">
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="16:16">
+    <row r="46" spans="7:16" ht="15.75" thickTop="1">
+      <c r="G46" s="13"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="16:16">
+    <row r="47" spans="7:16">
+      <c r="G47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="16:16">
+    <row r="48" spans="7:16">
+      <c r="G48" s="12"/>
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="8:39">
+    <row r="49" spans="7:39">
+      <c r="G49" s="12"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="8:39">
+    <row r="50" spans="7:39">
+      <c r="G50" s="12"/>
       <c r="P50" s="12"/>
     </row>
-    <row r="51" spans="8:39">
+    <row r="51" spans="7:39">
+      <c r="G51" s="12"/>
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="8:39">
+    <row r="52" spans="7:39">
+      <c r="G52" s="12"/>
       <c r="P52" s="12"/>
     </row>
-    <row r="53" spans="8:39">
+    <row r="53" spans="7:39">
+      <c r="G53" s="12"/>
       <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="8:39" ht="15.75" thickBot="1">
+    <row r="54" spans="7:39" ht="15.75" thickBot="1">
+      <c r="G54" s="12"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="P54" s="14"/>
@@ -43977,7 +51315,8 @@
       <c r="AC54" s="15"/>
       <c r="AD54" s="15"/>
     </row>
-    <row r="55" spans="8:39" ht="15.75" thickTop="1">
+    <row r="55" spans="7:39" ht="15.75" thickTop="1">
+      <c r="G55" s="12"/>
       <c r="H55" s="19"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -43987,7 +51326,8 @@
       <c r="AC55" s="15"/>
       <c r="AD55" s="15"/>
     </row>
-    <row r="56" spans="8:39">
+    <row r="56" spans="7:39">
+      <c r="G56" s="12"/>
       <c r="H56" s="19"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -44005,7 +51345,8 @@
       <c r="AL56" s="15"/>
       <c r="AM56" s="15"/>
     </row>
-    <row r="57" spans="8:39">
+    <row r="57" spans="7:39">
+      <c r="G57" s="12"/>
       <c r="H57" s="19"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -44023,7 +51364,8 @@
       <c r="AL57" s="15"/>
       <c r="AM57" s="15"/>
     </row>
-    <row r="58" spans="8:39">
+    <row r="58" spans="7:39" ht="15.75" thickBot="1">
+      <c r="G58" s="14"/>
       <c r="H58" s="19"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -44041,7 +51383,8 @@
       <c r="AL58" s="15"/>
       <c r="AM58" s="15"/>
     </row>
-    <row r="59" spans="8:39">
+    <row r="59" spans="7:39" ht="15.75" thickTop="1">
+      <c r="G59" s="13"/>
       <c r="H59" s="19"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -44060,7 +51403,8 @@
       <c r="AL59" s="15"/>
       <c r="AM59" s="15"/>
     </row>
-    <row r="60" spans="8:39">
+    <row r="60" spans="7:39">
+      <c r="G60" s="12"/>
       <c r="H60" s="19"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
@@ -44079,7 +51423,8 @@
       <c r="AL60" s="15"/>
       <c r="AM60" s="15"/>
     </row>
-    <row r="61" spans="8:39">
+    <row r="61" spans="7:39">
+      <c r="G61" s="12"/>
       <c r="H61" s="19"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
@@ -44098,7 +51443,8 @@
       <c r="AL61" s="15"/>
       <c r="AM61" s="15"/>
     </row>
-    <row r="62" spans="8:39">
+    <row r="62" spans="7:39">
+      <c r="G62" s="12"/>
       <c r="H62" s="19"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
@@ -44117,7 +51463,8 @@
       <c r="AL62" s="15"/>
       <c r="AM62" s="15"/>
     </row>
-    <row r="63" spans="8:39">
+    <row r="63" spans="7:39">
+      <c r="G63" s="12"/>
       <c r="H63" s="19"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -44135,7 +51482,8 @@
       <c r="AL63" s="15"/>
       <c r="AM63" s="15"/>
     </row>
-    <row r="64" spans="8:39">
+    <row r="64" spans="7:39">
+      <c r="G64" s="12"/>
       <c r="H64" s="19"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -44153,7 +51501,8 @@
       <c r="AL64" s="15"/>
       <c r="AM64" s="15"/>
     </row>
-    <row r="65" spans="8:40">
+    <row r="65" spans="7:40">
+      <c r="G65" s="12"/>
       <c r="H65" s="19"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -44171,7 +51520,8 @@
       <c r="AL65" s="15"/>
       <c r="AM65" s="15"/>
     </row>
-    <row r="66" spans="8:40">
+    <row r="66" spans="7:40">
+      <c r="G66" s="12"/>
       <c r="H66" s="19"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -44189,7 +51539,8 @@
       <c r="AL66" s="15"/>
       <c r="AM66" s="15"/>
     </row>
-    <row r="67" spans="8:40">
+    <row r="67" spans="7:40">
+      <c r="G67" s="12"/>
       <c r="H67" s="19"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
@@ -44207,7 +51558,8 @@
       <c r="AL67" s="15"/>
       <c r="AM67" s="15"/>
     </row>
-    <row r="68" spans="8:40">
+    <row r="68" spans="7:40">
+      <c r="G68" s="12"/>
       <c r="H68" s="19"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
@@ -44217,7 +51569,8 @@
       <c r="AC68" s="15"/>
       <c r="AD68" s="15"/>
     </row>
-    <row r="69" spans="8:40">
+    <row r="69" spans="7:40" ht="15.75" thickBot="1">
+      <c r="G69" s="12"/>
       <c r="H69" s="19"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
@@ -44227,7 +51580,8 @@
       <c r="AC69" s="15"/>
       <c r="AD69" s="15"/>
     </row>
-    <row r="70" spans="8:40">
+    <row r="70" spans="7:40" ht="15.75" thickTop="1">
+      <c r="G70" s="13"/>
       <c r="H70" s="19"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -44237,7 +51591,8 @@
       <c r="AC70" s="15"/>
       <c r="AD70" s="15"/>
     </row>
-    <row r="71" spans="8:40" ht="15.75" thickBot="1">
+    <row r="71" spans="7:40" ht="15.75" thickBot="1">
+      <c r="G71" s="12"/>
       <c r="H71" s="19"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -44247,7 +51602,8 @@
       <c r="AC71" s="15"/>
       <c r="AD71" s="15"/>
     </row>
-    <row r="72" spans="8:40" ht="15.75" thickTop="1">
+    <row r="72" spans="7:40" ht="15.75" thickTop="1">
+      <c r="G72" s="12"/>
       <c r="H72" s="19"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
@@ -44257,7 +51613,8 @@
       <c r="AC72" s="15"/>
       <c r="AD72" s="15"/>
     </row>
-    <row r="73" spans="8:40">
+    <row r="73" spans="7:40">
+      <c r="G73" s="12"/>
       <c r="H73" s="19"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -44267,7 +51624,8 @@
       <c r="AC73" s="15"/>
       <c r="AD73" s="15"/>
     </row>
-    <row r="74" spans="8:40">
+    <row r="74" spans="7:40">
+      <c r="G74" s="12"/>
       <c r="H74" s="19"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -44277,7 +51635,8 @@
       <c r="AC74" s="15"/>
       <c r="AD74" s="15"/>
     </row>
-    <row r="75" spans="8:40">
+    <row r="75" spans="7:40">
+      <c r="G75" s="12"/>
       <c r="H75" s="19"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -44289,7 +51648,8 @@
       <c r="AJ75" s="12"/>
       <c r="AK75" s="21"/>
     </row>
-    <row r="76" spans="8:40">
+    <row r="76" spans="7:40">
+      <c r="G76" s="12"/>
       <c r="H76" s="19"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -44301,7 +51661,8 @@
       <c r="AJ76" s="12"/>
       <c r="AK76" s="21"/>
     </row>
-    <row r="77" spans="8:40" ht="15.75" thickBot="1">
+    <row r="77" spans="7:40" ht="15.75" thickBot="1">
+      <c r="G77" s="12"/>
       <c r="H77" s="19"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -44313,7 +51674,8 @@
       <c r="AJ77" s="14"/>
       <c r="AK77" s="22"/>
     </row>
-    <row r="78" spans="8:40" ht="15.75" thickTop="1">
+    <row r="78" spans="7:40" ht="15.75" thickTop="1">
+      <c r="G78" s="12"/>
       <c r="H78" s="19"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -44330,7 +51692,8 @@
       <c r="AM78" s="23"/>
       <c r="AN78" s="13"/>
     </row>
-    <row r="79" spans="8:40">
+    <row r="79" spans="7:40">
+      <c r="G79" s="12"/>
       <c r="H79" s="19"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
@@ -44344,14 +51707,15 @@
       <c r="AM79" s="15"/>
       <c r="AN79" s="12"/>
     </row>
-    <row r="80" spans="8:40">
+    <row r="80" spans="7:40" ht="15.75" thickBot="1">
+      <c r="G80" s="14"/>
       <c r="H80" s="19"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="P80" s="12"/>
     </row>
-    <row r="81" spans="8:16">
+    <row r="81" spans="8:16" ht="15.75" thickTop="1">
       <c r="H81" s="19"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
